--- a/datasets/materia_prima.xlsx
+++ b/datasets/materia_prima.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{38D9FD0F-B34C-4670-8CE7-5D25B9E2427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD90D492-C255-4D8E-852E-643B0CA15105}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{38D9FD0F-B34C-4670-8CE7-5D25B9E2427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{199D77DC-EEEB-4541-9D52-56C377C62C03}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7AEE2F05-903D-4716-8C11-BB7DB34B5004}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12901" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14453" uniqueCount="938">
   <si>
     <t>FECHA</t>
   </si>
@@ -2679,6 +2679,177 @@
   </si>
   <si>
     <t>Mes</t>
+  </si>
+  <si>
+    <t>CTVV 3144</t>
+  </si>
+  <si>
+    <t>VVS 007</t>
+  </si>
+  <si>
+    <t>VVS 007 - ARYAN RESIDENCE - KITCHENS</t>
+  </si>
+  <si>
+    <t>CTVV 3092</t>
+  </si>
+  <si>
+    <t>CTVV 3092 - REMODELACION CASA MATA - JOSE LUIS RAMIREZ</t>
+  </si>
+  <si>
+    <t>CTVV 3081</t>
+  </si>
+  <si>
+    <t>CTVV 3081 - DELEÑA ALTACIA LEON - GRUPO BLOGAR</t>
+  </si>
+  <si>
+    <t>CTVV 3087</t>
+  </si>
+  <si>
+    <t>CTVV 2973</t>
+  </si>
+  <si>
+    <t>CTVV 3078</t>
+  </si>
+  <si>
+    <t>CTVV 3125</t>
+  </si>
+  <si>
+    <t>CTVV 3125 - REMODELACION PUERTA SUR - VERONICA ERON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUM ARQ DE MORELIA                     </t>
+  </si>
+  <si>
+    <t>CTVV 3142</t>
+  </si>
+  <si>
+    <t>CTVV 3142 - PROPUESTA VERONA - MEDA CASA ZAMORA</t>
+  </si>
+  <si>
+    <t>CTVV 3174</t>
+  </si>
+  <si>
+    <t>CTVV 3174 - PROTOTIPO BILBAO TORRES CASTILLEJO TORRE C- HOGARES DEESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO JOEL ROMERO ESPEJEL           </t>
+  </si>
+  <si>
+    <t>CTVV 3196</t>
+  </si>
+  <si>
+    <t>CTVV 3196 - PROTOTIPO B05 VILLAS DEL SUR</t>
+  </si>
+  <si>
+    <t>CTVV 3185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTVV 3156 - PROTOTIPO T01 VIALBA VILLAS DEL PEDREGAL III </t>
+  </si>
+  <si>
+    <t>CTVV 3115</t>
+  </si>
+  <si>
+    <t>CTVV 3115 - BANCAS EXTERIORES-STAR MEDICA</t>
+  </si>
+  <si>
+    <t>CTVV 3186</t>
+  </si>
+  <si>
+    <t>CTVV 3186 - NATURA LOBBY TORRE A - ARMANDO CHAVEZ</t>
+  </si>
+  <si>
+    <t>CTVV 3131</t>
+  </si>
+  <si>
+    <t>CTVV 3131 - HOTEL GRAND CATALAGUA SUITE PRESIDENCIAL - ARTESA</t>
+  </si>
+  <si>
+    <t>CTVV 2813</t>
+  </si>
+  <si>
+    <t>CTVV 3161</t>
+  </si>
+  <si>
+    <t>CTVV 3161 - REEMPLAZO DE MOBILIARIO - HOGARES DEESA</t>
+  </si>
+  <si>
+    <t>CTVV 3093</t>
+  </si>
+  <si>
+    <t>CTVV 3093 - DESPACHO GM - MARINA GOMEZ</t>
+  </si>
+  <si>
+    <t>CTVV 3070</t>
+  </si>
+  <si>
+    <t>CTVV 3070 - PISO 5 CENTRO CAPITAL OFICINA 01 J - CANACO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>CTVV 3174 - PROTOTIPO BILBAO TORRES CASTILLEJO TORRE C - HOGARES DEESA</t>
+  </si>
+  <si>
+    <t>CTVV 2973 - CASA VS - ARQ. JAVIER MEDINA</t>
+  </si>
+  <si>
+    <t>ALFONSO C</t>
+  </si>
+  <si>
+    <t>CTVV 2209 - COCINA MIL CUMBBRES - VICKY OROZCO</t>
+  </si>
+  <si>
+    <t>CTVV 3199 - CUBIERTA LAVANETA BARRICA 134 ANDANA</t>
+  </si>
+  <si>
+    <t>CTVV 3112 - REMODELACION CASA MATA - JOSE LUIS RAMIREZ</t>
+  </si>
+  <si>
+    <t>CTVV 3142 - PROPUESTA VERONA ZAMORA (10 CASAS) - MEDA CASA</t>
+  </si>
+  <si>
+    <t>FELIX</t>
+  </si>
+  <si>
+    <t>GERARDO VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>CTVV 2973  - CASA VS-ARQ.JAVIER MEDINA</t>
+  </si>
+  <si>
+    <t>CTVV 3142 - PROPUESTA VERONA-MEDA CASA</t>
+  </si>
+  <si>
+    <t>CTVV 3125 - REMODELACION DE PUERTA SUR- VERONICA ERON</t>
+  </si>
+  <si>
+    <t>CTVV 2846</t>
+  </si>
+  <si>
+    <t>CTVV 3131 - HOTEL GRAND CANTALAGUA SUITE PRESIDENCIAL- ARTESA</t>
+  </si>
+  <si>
+    <t>CTVV 2961</t>
+  </si>
+  <si>
+    <t>CTVV 2961 - CASA PUERTO-MODISA</t>
+  </si>
+  <si>
+    <t>17 Sep 2024</t>
+  </si>
+  <si>
+    <t>18 Sep 2024</t>
+  </si>
+  <si>
+    <t>23 Sep 2024</t>
+  </si>
+  <si>
+    <t>ARACELI SAYR LACK</t>
+  </si>
+  <si>
+    <t>CTVV 3073</t>
   </si>
 </sst>
 </file>
@@ -2717,10 +2888,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2745,9 +2917,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}" name="Tabla1" displayName="Tabla1" ref="A1:M2274" totalsRowShown="0">
-  <autoFilter ref="A1:M2274" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}" name="Tabla1" displayName="Tabla1" ref="A1:M2538" totalsRowShown="0">
+  <autoFilter ref="A1:M2538" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{4386F709-E119-4080-973E-B598D9700BD2}" name="FECHA" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{24C42814-9DD7-4122-B503-4E5E2203BDB9}" name="# REQUISICIÓN"/>
@@ -3086,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD36A5D-8C83-42C2-9C72-5D7D738EDD89}">
-  <dimension ref="A1:M2274"/>
+  <dimension ref="A1:M2538"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A2526" workbookViewId="0">
+      <selection activeCell="E2275" sqref="E2275:L2538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69019,6 +69195,7815 @@
         <v>agosto</v>
       </c>
     </row>
+    <row r="2275" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2275" s="1">
+        <v>45537</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2275" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2275" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2275">
+        <v>3606.5</v>
+      </c>
+      <c r="J2275" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2275" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2275" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2275" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2276" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2276" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2276" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2276">
+        <v>49881.71</v>
+      </c>
+      <c r="J2276" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2276" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2276" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2276" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2277" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2277" t="s">
+        <v>830</v>
+      </c>
+      <c r="G2277" t="s">
+        <v>831</v>
+      </c>
+      <c r="I2277">
+        <v>11055.79</v>
+      </c>
+      <c r="J2277" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2277" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2277" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2277" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2278" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2278" t="s">
+        <v>884</v>
+      </c>
+      <c r="G2278" t="s">
+        <v>885</v>
+      </c>
+      <c r="I2278">
+        <v>6636.08</v>
+      </c>
+      <c r="J2278" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2278" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2278" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2278" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2279" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2279" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2279" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2279">
+        <v>52.19</v>
+      </c>
+      <c r="J2279" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2279" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2279" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2279" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2280" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2280" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2280" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2280">
+        <v>17548.45</v>
+      </c>
+      <c r="J2280" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2280" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2280" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2280" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2281" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2281" t="s">
+        <v>856</v>
+      </c>
+      <c r="I2281">
+        <v>20994</v>
+      </c>
+      <c r="J2281" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2281" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2281" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2281" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2282" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2282" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2282" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2282">
+        <v>15745.5</v>
+      </c>
+      <c r="J2282" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2282" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2282" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2282" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2283" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2283" t="s">
+        <v>774</v>
+      </c>
+      <c r="I2283">
+        <v>492.56</v>
+      </c>
+      <c r="J2283" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2283" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2283" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2283" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2284" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2284" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2284">
+        <v>379.27</v>
+      </c>
+      <c r="J2284" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2284" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2284" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2284" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2285" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2285" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2285">
+        <v>855.98</v>
+      </c>
+      <c r="J2285" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2285" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2285" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2285" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2286" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2286" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2286" t="s">
+        <v>887</v>
+      </c>
+      <c r="I2286">
+        <v>1240.27</v>
+      </c>
+      <c r="J2286" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2286" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2286" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2286" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2287" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2287" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2287" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2287">
+        <v>13572.52</v>
+      </c>
+      <c r="J2287" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2287" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2287" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2287" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2288" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2288" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2288" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2288">
+        <v>5548.34</v>
+      </c>
+      <c r="J2288" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2288" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2288" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2288" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2289" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2289" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2289" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2289">
+        <v>3606.5</v>
+      </c>
+      <c r="J2289" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2289" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2289" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2289" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2290" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2290" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2290" t="s">
+        <v>623</v>
+      </c>
+      <c r="I2290">
+        <v>4485.0200000000004</v>
+      </c>
+      <c r="J2290" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2290" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2290" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2290" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2291" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2291" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2291">
+        <v>8386</v>
+      </c>
+      <c r="J2291" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2291" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2291" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2291" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2292" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2292" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2292">
+        <v>2108.88</v>
+      </c>
+      <c r="J2292" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2292" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2292" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2292" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2293" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2293" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2293" t="s">
+        <v>864</v>
+      </c>
+      <c r="I2293">
+        <v>1339.8</v>
+      </c>
+      <c r="J2293" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2293" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2293" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2293" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2294" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2294" t="s">
+        <v>890</v>
+      </c>
+      <c r="G2294" t="s">
+        <v>859</v>
+      </c>
+      <c r="I2294">
+        <v>10636.43</v>
+      </c>
+      <c r="J2294" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2294" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2294" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2294" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2295" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2295" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2295">
+        <v>17325.98</v>
+      </c>
+      <c r="J2295" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2295" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2295" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2295" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2296" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2296" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2296" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2296">
+        <v>12784.75</v>
+      </c>
+      <c r="J2296" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2296" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2296" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2296" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2297" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2297" t="s">
+        <v>892</v>
+      </c>
+      <c r="I2297">
+        <v>99.38</v>
+      </c>
+      <c r="J2297" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2297" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2297" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2297" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2298" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2298" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2298" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2298">
+        <v>1888.2</v>
+      </c>
+      <c r="J2298" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2298" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2298" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2298" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2299" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2299" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2299">
+        <v>24586.39</v>
+      </c>
+      <c r="J2299" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2299" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2299" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2299" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2300" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2300" t="s">
+        <v>752</v>
+      </c>
+      <c r="G2300" t="s">
+        <v>862</v>
+      </c>
+      <c r="I2300">
+        <v>28957.08</v>
+      </c>
+      <c r="J2300" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2300" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2300" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2300" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2301" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2301" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2301" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2301">
+        <v>15776</v>
+      </c>
+      <c r="J2301" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2301" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2301" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2301" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2302" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2302" t="s">
+        <v>890</v>
+      </c>
+      <c r="G2302" t="s">
+        <v>859</v>
+      </c>
+      <c r="I2302">
+        <v>22272</v>
+      </c>
+      <c r="J2302" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2302" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2302" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2302" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2303" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2303" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2303">
+        <v>21088.799999999999</v>
+      </c>
+      <c r="J2303" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2303" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2303" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2303" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2304" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2304" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2304">
+        <v>52394.06</v>
+      </c>
+      <c r="J2304" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2304" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2304" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2304" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2305" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2305" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2305">
+        <v>9618.7199999999993</v>
+      </c>
+      <c r="J2305" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2305" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2305" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2305" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2306" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>893</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>890</v>
+      </c>
+      <c r="G2306" t="s">
+        <v>859</v>
+      </c>
+      <c r="I2306">
+        <v>1700</v>
+      </c>
+      <c r="J2306" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2306" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2306" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2306" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2307" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2307" t="s">
+        <v>895</v>
+      </c>
+      <c r="I2307">
+        <v>6298.45</v>
+      </c>
+      <c r="J2307" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2307" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2307" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2307" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2308" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2308" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2308">
+        <v>3482.78</v>
+      </c>
+      <c r="J2308" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2308" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2308" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2308" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2309" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>783</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2309" t="s">
+        <v>551</v>
+      </c>
+      <c r="I2309">
+        <v>9710</v>
+      </c>
+      <c r="J2309" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2309" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2309" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2309" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2310" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2310" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2310" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2310">
+        <v>1379.71</v>
+      </c>
+      <c r="J2310" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2310" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2310" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2310" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2311" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2311" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2311">
+        <v>6484.05</v>
+      </c>
+      <c r="J2311" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2311" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2311" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2311" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2312" s="1">
+        <v>45558</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2312" t="s">
+        <v>884</v>
+      </c>
+      <c r="G2312" t="s">
+        <v>885</v>
+      </c>
+      <c r="I2312">
+        <v>7377.79</v>
+      </c>
+      <c r="J2312" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2312" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2312" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2312" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2313" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2313" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2313">
+        <v>695</v>
+      </c>
+      <c r="J2313" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2313" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2313" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2313" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2314" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2314" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2314">
+        <v>4260.5200000000004</v>
+      </c>
+      <c r="J2314" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2314" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2314" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2314" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2315" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2315" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2315" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2315">
+        <v>4961.08</v>
+      </c>
+      <c r="J2315" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2315" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2315" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2315" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2316" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2316" t="s">
+        <v>899</v>
+      </c>
+      <c r="G2316" t="s">
+        <v>900</v>
+      </c>
+      <c r="I2316">
+        <v>2808</v>
+      </c>
+      <c r="J2316" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2316" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2316" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2316" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2317" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2317" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2317" t="s">
+        <v>892</v>
+      </c>
+      <c r="I2317">
+        <v>2139.04</v>
+      </c>
+      <c r="J2317" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2317" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2317" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2317" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2318" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2318" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2318" t="s">
+        <v>895</v>
+      </c>
+      <c r="I2318">
+        <v>28957.08</v>
+      </c>
+      <c r="J2318" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2318" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2318" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2318" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2319" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2319" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2319">
+        <v>28957.08</v>
+      </c>
+      <c r="J2319" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2319" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2319" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2319" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2320" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2320" t="s">
+        <v>903</v>
+      </c>
+      <c r="G2320" t="s">
+        <v>904</v>
+      </c>
+      <c r="I2320">
+        <v>13015.2</v>
+      </c>
+      <c r="J2320" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2320" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2320" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2320" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2321" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2321" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2321" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2321">
+        <v>3122.6</v>
+      </c>
+      <c r="J2321" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2321" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2321" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2321" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2322" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>905</v>
+      </c>
+      <c r="G2322" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2322">
+        <v>3482.78</v>
+      </c>
+      <c r="J2322" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2322" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2322" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2322" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2323" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2323" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2323" t="s">
+        <v>895</v>
+      </c>
+      <c r="I2323">
+        <v>2480.54</v>
+      </c>
+      <c r="J2323" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2323" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2323" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2323" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2324" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2324" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2324" t="s">
+        <v>908</v>
+      </c>
+      <c r="I2324">
+        <v>3962.5</v>
+      </c>
+      <c r="J2324" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2324" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2324" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2324" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2325" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2325" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2325" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2325">
+        <v>2300.2800000000002</v>
+      </c>
+      <c r="J2325" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2325" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2325" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2325" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2326" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2326" t="s">
+        <v>908</v>
+      </c>
+      <c r="I2326">
+        <v>10307.76</v>
+      </c>
+      <c r="J2326" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2326" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2326" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2326" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2327" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2327" t="s">
+        <v>856</v>
+      </c>
+      <c r="I2327">
+        <v>11863.16</v>
+      </c>
+      <c r="J2327" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2327" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2327" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2327" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2328" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2328" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2328" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2328">
+        <v>3000</v>
+      </c>
+      <c r="J2328" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2328" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2328" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2328" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2329" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2329" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2329">
+        <v>3000</v>
+      </c>
+      <c r="J2329" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2329" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2329" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2329" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2330" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2330" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2330">
+        <v>872</v>
+      </c>
+      <c r="J2330" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2330" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2330" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2330" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2331" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2331" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2331" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2331">
+        <v>190</v>
+      </c>
+      <c r="J2331" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2331" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2331" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2331" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2332" s="1">
+        <v>45541</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2332" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2332">
+        <v>3200</v>
+      </c>
+      <c r="J2332" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2332" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2332" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2332" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2333" s="1">
+        <v>45541</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2333" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2333" t="s">
+        <v>856</v>
+      </c>
+      <c r="I2333">
+        <v>9000</v>
+      </c>
+      <c r="J2333" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2333" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2333" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2333" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2334" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>520</v>
+      </c>
+      <c r="F2334" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2334" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2334">
+        <v>1000</v>
+      </c>
+      <c r="J2334" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2334" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2334" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2334" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2335" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2335" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2335">
+        <v>2500</v>
+      </c>
+      <c r="J2335" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2335" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2335" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2335" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2336" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2336" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2336" t="s">
+        <v>911</v>
+      </c>
+      <c r="I2336">
+        <v>869</v>
+      </c>
+      <c r="J2336" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2336" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2336" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2336" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2337" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2337" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2337">
+        <v>2000</v>
+      </c>
+      <c r="J2337" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2337" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2337" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2337" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2338" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2338" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2338">
+        <v>265</v>
+      </c>
+      <c r="J2338" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2338" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2338" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2338" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2339" s="1">
+        <v>45546</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2339" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2339">
+        <v>2000</v>
+      </c>
+      <c r="J2339" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2339" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2339" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2339" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2340" s="1">
+        <v>45546</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2340" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2340" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2340">
+        <v>1120</v>
+      </c>
+      <c r="J2340" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2340" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2340" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2340" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2341" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2341" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2341" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2341">
+        <v>3200</v>
+      </c>
+      <c r="J2341" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2341" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2341" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2341" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2342" s="1">
+        <v>45547</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2342">
+        <v>433</v>
+      </c>
+      <c r="J2342" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2342" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2342" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2342" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2343" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2343" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2343">
+        <v>2700</v>
+      </c>
+      <c r="J2343" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2343" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2343" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2343" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2344" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2344" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2344">
+        <v>383</v>
+      </c>
+      <c r="J2344" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2344" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2344" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2344" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2345" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2345" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2345" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2345">
+        <v>5600</v>
+      </c>
+      <c r="J2345" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2345" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2345" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2345" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2346" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2346" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2346">
+        <v>4250</v>
+      </c>
+      <c r="J2346" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2346" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2346" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2346" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2347" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2347" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2347" t="s">
+        <v>913</v>
+      </c>
+      <c r="I2347">
+        <v>3600</v>
+      </c>
+      <c r="J2347" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2347" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2347" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2347" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2348" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2348" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2348" t="s">
+        <v>685</v>
+      </c>
+      <c r="I2348">
+        <v>200</v>
+      </c>
+      <c r="J2348" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2348" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2348" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2348" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2349" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>915</v>
+      </c>
+      <c r="I2349">
+        <v>1350</v>
+      </c>
+      <c r="J2349" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2349" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2349" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2349" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2350" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2350" t="s">
+        <v>533</v>
+      </c>
+      <c r="I2350">
+        <v>1250</v>
+      </c>
+      <c r="J2350" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2350" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2350" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2350" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2351" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2351" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2351">
+        <v>1250</v>
+      </c>
+      <c r="J2351" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2351" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2351" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2351" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2352" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2352" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2352">
+        <v>3500</v>
+      </c>
+      <c r="J2352" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2352" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2352" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2352" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2353" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2353" t="s">
+        <v>551</v>
+      </c>
+      <c r="I2353">
+        <v>2920</v>
+      </c>
+      <c r="J2353" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2353" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2353" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2353" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2354" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>916</v>
+      </c>
+      <c r="F2354" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2354" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2354">
+        <v>5380</v>
+      </c>
+      <c r="J2354" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2354" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2354" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2354" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2355" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2355" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2355">
+        <v>750</v>
+      </c>
+      <c r="J2355" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2355" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2355" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2355" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2356" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2356" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>917</v>
+      </c>
+      <c r="I2356">
+        <v>6600</v>
+      </c>
+      <c r="J2356" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2356" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2356" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2356" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2357" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2357" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2357" t="s">
+        <v>533</v>
+      </c>
+      <c r="I2357">
+        <v>3100</v>
+      </c>
+      <c r="J2357" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2357" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2357" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2357" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2358" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2358" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2358" t="s">
+        <v>918</v>
+      </c>
+      <c r="I2358">
+        <v>3400</v>
+      </c>
+      <c r="J2358" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2358" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2358" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2358" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2359" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2359" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2359">
+        <v>800</v>
+      </c>
+      <c r="J2359" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2359" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2359" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2359" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2360" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2360" t="s">
+        <v>551</v>
+      </c>
+      <c r="I2360">
+        <v>9200</v>
+      </c>
+      <c r="J2360" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2360" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2360" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2360" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2361" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2361" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2361">
+        <v>2000</v>
+      </c>
+      <c r="J2361" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2361" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2361" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2361" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2362" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2362">
+        <v>234</v>
+      </c>
+      <c r="J2362" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2362" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2362" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2362" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2363" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2363" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2363" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2363">
+        <v>1700</v>
+      </c>
+      <c r="J2363" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2363" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2363" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2363" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2364" s="1">
+        <v>45558</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2364" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2364">
+        <v>2500</v>
+      </c>
+      <c r="J2364" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2364" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2364" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2364" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2365" s="1">
+        <v>45558</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>919</v>
+      </c>
+      <c r="G2365" t="s">
+        <v>920</v>
+      </c>
+      <c r="I2365">
+        <v>1790</v>
+      </c>
+      <c r="J2365" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2365" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2365" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2365" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2366" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>915</v>
+      </c>
+      <c r="I2366">
+        <v>128</v>
+      </c>
+      <c r="J2366" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2366" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2366" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2366" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2367" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2367" t="s">
+        <v>921</v>
+      </c>
+      <c r="I2367">
+        <v>1900</v>
+      </c>
+      <c r="J2367" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2367" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2367" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2367" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2368" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2368" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2368">
+        <v>2000</v>
+      </c>
+      <c r="J2368" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2368" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2368" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2368" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2369" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2369" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2369">
+        <v>3200</v>
+      </c>
+      <c r="J2369" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2369" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2369" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2369" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2370" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>884</v>
+      </c>
+      <c r="G2370" t="s">
+        <v>922</v>
+      </c>
+      <c r="I2370">
+        <v>5500</v>
+      </c>
+      <c r="J2370" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2370" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2370" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2370" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2371" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2371" t="s">
+        <v>923</v>
+      </c>
+      <c r="I2371">
+        <v>6900</v>
+      </c>
+      <c r="J2371" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2371" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2371" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2371" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2372" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>924</v>
+      </c>
+      <c r="G2372" t="s">
+        <v>921</v>
+      </c>
+      <c r="I2372">
+        <v>2400</v>
+      </c>
+      <c r="J2372" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2372" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2372" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2372" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2373" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>925</v>
+      </c>
+      <c r="F2373" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2373" t="s">
+        <v>685</v>
+      </c>
+      <c r="I2373">
+        <v>8800</v>
+      </c>
+      <c r="J2373" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2373" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2373" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2373" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2374" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2374" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2374">
+        <v>2000</v>
+      </c>
+      <c r="J2374" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2374" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2374" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2374" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2375" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2375" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2375">
+        <v>3270</v>
+      </c>
+      <c r="J2375" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2375" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2375" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2375" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2376" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2376" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2376">
+        <v>859</v>
+      </c>
+      <c r="J2376" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2376" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2376" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2376" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2377" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2377" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2377">
+        <v>1227</v>
+      </c>
+      <c r="J2377" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2377" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2377" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2377" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2378" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2378" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2378" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2378">
+        <v>1227</v>
+      </c>
+      <c r="J2378" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2378" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2378" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2378" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2379" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>847</v>
+      </c>
+      <c r="G2379" t="s">
+        <v>848</v>
+      </c>
+      <c r="I2379">
+        <v>620</v>
+      </c>
+      <c r="J2379" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2379" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2379" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2379" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2380" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2380" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2380" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2380">
+        <v>409</v>
+      </c>
+      <c r="J2380" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2380" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2380" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2380" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2381" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2381" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2381">
+        <v>1227</v>
+      </c>
+      <c r="J2381" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2381" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2381" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2381" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2382" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2382" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2382">
+        <v>859</v>
+      </c>
+      <c r="J2382" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2382" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2382" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2382" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2383" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2383" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2383" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2383">
+        <v>859</v>
+      </c>
+      <c r="J2383" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2383" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2383" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2383" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2384" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2384" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2384">
+        <v>6013</v>
+      </c>
+      <c r="J2384" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2384" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2384" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2384" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2385" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2385" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2385">
+        <v>1718</v>
+      </c>
+      <c r="J2385" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2385" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2385" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2385" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2386" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2386" t="s">
+        <v>752</v>
+      </c>
+      <c r="G2386" t="s">
+        <v>753</v>
+      </c>
+      <c r="I2386">
+        <v>2577</v>
+      </c>
+      <c r="J2386" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2386" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2386" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2386" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2387" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2387" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2387" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2387">
+        <v>2577</v>
+      </c>
+      <c r="J2387" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2387" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2387" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2387" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2388" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2388" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2388" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2388">
+        <v>29206</v>
+      </c>
+      <c r="J2388" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2388" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2388" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2388" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2389" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>752</v>
+      </c>
+      <c r="G2389" t="s">
+        <v>753</v>
+      </c>
+      <c r="I2389">
+        <v>859</v>
+      </c>
+      <c r="J2389" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2389" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2389" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2389" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2390" s="1">
+        <v>45538</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2390" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2390" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2390">
+        <v>6550</v>
+      </c>
+      <c r="J2390" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2390" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2390" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2390" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2391" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2391" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2391" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2391">
+        <v>1965</v>
+      </c>
+      <c r="J2391" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2391" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2391" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2391" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2392" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2392" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2392">
+        <v>12885</v>
+      </c>
+      <c r="J2392" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2392" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2392" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2392" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2393" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2393">
+        <v>859</v>
+      </c>
+      <c r="J2393" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2393" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2393" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2393" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2394" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2394" t="s">
+        <v>851</v>
+      </c>
+      <c r="I2394">
+        <v>2577</v>
+      </c>
+      <c r="J2394" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2394" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2394" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2394" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2395" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2395" t="s">
+        <v>847</v>
+      </c>
+      <c r="G2395" t="s">
+        <v>848</v>
+      </c>
+      <c r="I2395">
+        <v>2577</v>
+      </c>
+      <c r="J2395" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2395" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2395" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2395" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2396" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2396" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2396" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2396">
+        <v>859</v>
+      </c>
+      <c r="J2396" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2396" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2396" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2396" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2397" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2397" t="s">
+        <v>847</v>
+      </c>
+      <c r="G2397" t="s">
+        <v>848</v>
+      </c>
+      <c r="I2397">
+        <v>1905</v>
+      </c>
+      <c r="J2397" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2397" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2397" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2397" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2398" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2398" t="s">
+        <v>763</v>
+      </c>
+      <c r="G2398" t="s">
+        <v>764</v>
+      </c>
+      <c r="I2398">
+        <v>12885</v>
+      </c>
+      <c r="J2398" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2398" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2398" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2398" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2399" s="1">
+        <v>45539</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2399" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2399" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2399">
+        <v>29206</v>
+      </c>
+      <c r="J2399" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2399" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2399" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2399" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2400" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2400" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2400" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2400">
+        <v>1680</v>
+      </c>
+      <c r="J2400" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2400" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2400" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2400" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2401" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2401" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2401" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2401">
+        <v>240</v>
+      </c>
+      <c r="J2401" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2401" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2401" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2401" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2402" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2402" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2402" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2402">
+        <v>720</v>
+      </c>
+      <c r="J2402" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2402" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2402" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2402" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2403" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2403" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2403" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2403">
+        <v>1200</v>
+      </c>
+      <c r="J2403" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2403" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2403" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2403" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2404" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2404" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2404">
+        <v>240</v>
+      </c>
+      <c r="J2404" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2404" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2404" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2404" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2405" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2405" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2405" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2405">
+        <v>960</v>
+      </c>
+      <c r="J2405" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2405" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2405" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2405" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2406" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2406" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2406" t="s">
+        <v>876</v>
+      </c>
+      <c r="I2406">
+        <v>480</v>
+      </c>
+      <c r="J2406" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2406" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2406" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2406" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2407" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2407" t="s">
+        <v>847</v>
+      </c>
+      <c r="G2407" t="s">
+        <v>848</v>
+      </c>
+      <c r="I2407">
+        <v>240</v>
+      </c>
+      <c r="J2407" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2407" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2407" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2407" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2408" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2408" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2408" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2408">
+        <v>240</v>
+      </c>
+      <c r="J2408" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2408" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2408" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2408" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2409" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2409" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2409">
+        <v>960</v>
+      </c>
+      <c r="J2409" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2409" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2409" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2409" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2410" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2410" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2410">
+        <v>960</v>
+      </c>
+      <c r="J2410" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2410" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2410" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2410" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2411" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2411" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2411">
+        <v>1440</v>
+      </c>
+      <c r="J2411" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2411" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2411" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2411" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2412" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2412">
+        <v>1740</v>
+      </c>
+      <c r="J2412" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2412" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2412" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2412" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2413" s="1">
+        <v>45542</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2413" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2413">
+        <v>2970</v>
+      </c>
+      <c r="J2413" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2413" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2413" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2413" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2414" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2414" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2414">
+        <v>1780</v>
+      </c>
+      <c r="J2414" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2414" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2414" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2414" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2415" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2415" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2415">
+        <v>1780</v>
+      </c>
+      <c r="J2415" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2415" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2415" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2415" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2416" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2416" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2416" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2416">
+        <v>2225</v>
+      </c>
+      <c r="J2416" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2416" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2416" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2416" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2417" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2417" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2417" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2417">
+        <v>7565</v>
+      </c>
+      <c r="J2417" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2417" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2417" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2417" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2418" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2418" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2418" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2418">
+        <v>500</v>
+      </c>
+      <c r="J2418" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2418" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2418" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2418" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2419" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2419" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2419" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2419">
+        <v>32153</v>
+      </c>
+      <c r="J2419" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2419" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2419" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2419" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2420" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2420" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2420" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2420">
+        <v>48664</v>
+      </c>
+      <c r="J2420" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2420" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2420" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2420" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2421" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2421" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2421" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2421">
+        <v>6083</v>
+      </c>
+      <c r="J2421" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2421" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2421" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2421" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2422" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2422" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2422">
+        <v>9559</v>
+      </c>
+      <c r="J2422" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2422" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2422" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2422" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2423" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2423" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2423">
+        <v>5214</v>
+      </c>
+      <c r="J2423" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2423" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2423" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2423" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2424" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2424" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2424">
+        <v>9559</v>
+      </c>
+      <c r="J2424" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2424" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2424" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2424" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2425" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2425" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2425">
+        <v>869</v>
+      </c>
+      <c r="J2425" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2425" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2425" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2425" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2426" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2426" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2426">
+        <v>16511</v>
+      </c>
+      <c r="J2426" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2426" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2426" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2426" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2427" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2427" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2427">
+        <v>1738</v>
+      </c>
+      <c r="J2427" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2427" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2427" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2427" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2428" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2428" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2428">
+        <v>840</v>
+      </c>
+      <c r="J2428" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2428" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2428" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2428" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2429" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2429" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2429">
+        <v>240</v>
+      </c>
+      <c r="J2429" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2429" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2429" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2429" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2430" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2430" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2430">
+        <v>1440</v>
+      </c>
+      <c r="J2430" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2430" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2430" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2430" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2431" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2431" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2431">
+        <v>240</v>
+      </c>
+      <c r="J2431" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2431" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2431" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2431" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2432" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2432" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2432">
+        <v>240</v>
+      </c>
+      <c r="J2432" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2432" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2432" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2432" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2433" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2433" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2433">
+        <v>5040</v>
+      </c>
+      <c r="J2433" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2433" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2433" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2433" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2434" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2434" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2434">
+        <v>720</v>
+      </c>
+      <c r="J2434" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2434" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2434" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2434" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2435" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2435" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2435">
+        <v>3840</v>
+      </c>
+      <c r="J2435" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2435" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2435" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2435" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2436" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2436" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2436">
+        <v>240</v>
+      </c>
+      <c r="J2436" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2436" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2436" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2436" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2437" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2437" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2437">
+        <v>1738</v>
+      </c>
+      <c r="J2437" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2437" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2437" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2437" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2438" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2438" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2438">
+        <v>3175</v>
+      </c>
+      <c r="J2438" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2438" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2438" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2438" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2439" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2439" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2439">
+        <v>1396</v>
+      </c>
+      <c r="J2439" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2439" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2439" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2439" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2440" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2440" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2440">
+        <v>5214</v>
+      </c>
+      <c r="J2440" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2440" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2440" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2440" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2441" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>847</v>
+      </c>
+      <c r="G2441" t="s">
+        <v>848</v>
+      </c>
+      <c r="I2441">
+        <v>310</v>
+      </c>
+      <c r="J2441" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2441" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2441" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2441" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2442" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2442">
+        <v>1550</v>
+      </c>
+      <c r="J2442" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2442" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2442" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2442" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2443" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2443">
+        <v>10640</v>
+      </c>
+      <c r="J2443" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2443" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2443" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2443" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2444" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2444" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2444">
+        <v>1995</v>
+      </c>
+      <c r="J2444" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2444" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2444" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2444" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2445" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2445" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2445">
+        <v>6650</v>
+      </c>
+      <c r="J2445" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2445" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2445" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2445" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2446" s="1">
+        <v>45549</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2446" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2446">
+        <v>1125</v>
+      </c>
+      <c r="J2446" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2446" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2446" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2446" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2447" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2447">
+        <v>49533</v>
+      </c>
+      <c r="J2447" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2447" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2447" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2447" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2448" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2448" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2448">
+        <v>3990</v>
+      </c>
+      <c r="J2448" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2448" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2448" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2448" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2449" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2449" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2449" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2449">
+        <v>3476</v>
+      </c>
+      <c r="J2449" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2449" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2449" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2449" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2450" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2450" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2450">
+        <v>1738</v>
+      </c>
+      <c r="J2450" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2450" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2450" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2450" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2451" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2451" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2451">
+        <v>2670</v>
+      </c>
+      <c r="J2451" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2451" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2451" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2451" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2452" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2452" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2452">
+        <v>10428</v>
+      </c>
+      <c r="J2452" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2452" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2452" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2452" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2453" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2453" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2453">
+        <v>93651</v>
+      </c>
+      <c r="J2453" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2453" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2453" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2453" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2454" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>905</v>
+      </c>
+      <c r="G2454" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2454">
+        <v>8690</v>
+      </c>
+      <c r="J2454" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2454" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2454" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2454" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2455" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2455" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2455" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2455">
+        <v>869</v>
+      </c>
+      <c r="J2455" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2455" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2455" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2455" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2456" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2456">
+        <v>869</v>
+      </c>
+      <c r="J2456" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2456" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2456" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2456" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2457" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>905</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2457">
+        <v>3990</v>
+      </c>
+      <c r="J2457" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2457" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2457" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2457" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2458" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2458">
+        <v>869</v>
+      </c>
+      <c r="J2458" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2458" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2458" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2458" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2459" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2459">
+        <v>869</v>
+      </c>
+      <c r="J2459" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2459" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2459" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2459" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2460" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2460">
+        <v>890</v>
+      </c>
+      <c r="J2460" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2460" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2460" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2460" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2461" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>915</v>
+      </c>
+      <c r="I2461">
+        <v>1047</v>
+      </c>
+      <c r="J2461" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2461" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2461" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2461" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2462" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>899</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>900</v>
+      </c>
+      <c r="I2462">
+        <v>7821</v>
+      </c>
+      <c r="J2462" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2462" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2462" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2462" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2463" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2463">
+        <v>7821</v>
+      </c>
+      <c r="J2463" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2463" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2463" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2463" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2464" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2464">
+        <v>7821</v>
+      </c>
+      <c r="J2464" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2464" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2464" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2464" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2465" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>899</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>900</v>
+      </c>
+      <c r="I2465">
+        <v>4345</v>
+      </c>
+      <c r="J2465" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2465" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2465" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2465" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2466" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2466">
+        <v>480</v>
+      </c>
+      <c r="J2466" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2466" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2466" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2466" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2467" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2467">
+        <v>1260</v>
+      </c>
+      <c r="J2467" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2467" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2467" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2467" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2468" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>899</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>900</v>
+      </c>
+      <c r="I2468">
+        <v>420</v>
+      </c>
+      <c r="J2468" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2468" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2468" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2468" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2469" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2469">
+        <v>720</v>
+      </c>
+      <c r="J2469" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2469" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2469" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2469" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2470" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>929</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2470">
+        <v>1440</v>
+      </c>
+      <c r="J2470" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2470" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2470" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2470" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2471" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>830</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>852</v>
+      </c>
+      <c r="I2471">
+        <v>1200</v>
+      </c>
+      <c r="J2471" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2471" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2471" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2471" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2472" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2472">
+        <v>240</v>
+      </c>
+      <c r="J2472" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2472" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2472" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2472" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2473" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>903</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>904</v>
+      </c>
+      <c r="I2473">
+        <v>960</v>
+      </c>
+      <c r="J2473" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2473" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2473" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2473" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2474" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2474">
+        <v>17523</v>
+      </c>
+      <c r="J2474" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2474" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2474" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2474" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2475" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2475">
+        <v>32153</v>
+      </c>
+      <c r="J2475" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2475" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2475" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2475" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2476" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2476">
+        <v>3476</v>
+      </c>
+      <c r="J2476" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2476" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2476" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2476" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2477" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2477" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2477">
+        <v>6083</v>
+      </c>
+      <c r="J2477" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2477" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2477" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2477" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2478" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2478" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2478">
+        <v>1335</v>
+      </c>
+      <c r="J2478" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2478" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2478" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2478" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2479" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2479" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>930</v>
+      </c>
+      <c r="I2479">
+        <v>2225</v>
+      </c>
+      <c r="J2479" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2479" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2479" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2479" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2480" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2480" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2480">
+        <v>869</v>
+      </c>
+      <c r="J2480" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2480" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2480" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2480" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2481" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2481" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2481">
+        <v>1738</v>
+      </c>
+      <c r="J2481" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2481" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2481" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2481" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2482" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2482" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2482">
+        <v>1288</v>
+      </c>
+      <c r="J2482" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2482" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2482" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2482" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2483" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2483">
+        <v>690</v>
+      </c>
+      <c r="J2483" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2483" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2483" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2483" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2484" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2484" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2484">
+        <v>1223.21</v>
+      </c>
+      <c r="J2484" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2484" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2484" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2484" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2485" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2485" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2485">
+        <v>17083.87</v>
+      </c>
+      <c r="J2485" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2485" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2485" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2485" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2486" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2486" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2486">
+        <v>1332.21</v>
+      </c>
+      <c r="J2486" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2486" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2486" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2486" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2487" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2487" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2487">
+        <v>4017.66</v>
+      </c>
+      <c r="J2487" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2487" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2487" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2487" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2488" s="1">
+        <v>45546</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>681</v>
+      </c>
+      <c r="I2488">
+        <v>171.68</v>
+      </c>
+      <c r="J2488" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2488" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2488" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2488" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2489" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2489">
+        <v>549.84</v>
+      </c>
+      <c r="J2489" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2489" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2489" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2489" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2490" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2490" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2490">
+        <v>8269.4500000000007</v>
+      </c>
+      <c r="J2490" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2490" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2490" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2490" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2491" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2491" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2491">
+        <v>5383.71</v>
+      </c>
+      <c r="J2491" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2491" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2491" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2491" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2492" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2492" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2492">
+        <v>822.71</v>
+      </c>
+      <c r="J2492" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2492" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2492" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2492" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2493" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2493" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2493">
+        <v>1332.21</v>
+      </c>
+      <c r="J2493" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2493" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2493" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2493" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2494" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2494" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2494">
+        <v>2837.42</v>
+      </c>
+      <c r="J2494" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2494" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2494" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2494" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2495" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2495" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2495">
+        <v>407.79</v>
+      </c>
+      <c r="J2495" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2495" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2495" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2495" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2496" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2496" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2496">
+        <v>1980</v>
+      </c>
+      <c r="J2496" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2496" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2496" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2496" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2497" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2497" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2497">
+        <v>8414.77</v>
+      </c>
+      <c r="J2497" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2497" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2497" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2497" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2498" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2498" t="s">
+        <v>905</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2498">
+        <v>94.56</v>
+      </c>
+      <c r="J2498" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2498" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2498" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2498" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2499" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2499" t="s">
+        <v>905</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2499">
+        <v>1221.04</v>
+      </c>
+      <c r="J2499" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2499" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2499" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2499" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2500" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2500" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>927</v>
+      </c>
+      <c r="I2500">
+        <v>6561.41</v>
+      </c>
+      <c r="J2500" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2500" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2500" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2500" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2501" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2501" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>930</v>
+      </c>
+      <c r="I2501">
+        <v>3487.34</v>
+      </c>
+      <c r="J2501" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2501" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2501" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2501" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2502" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2502" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2502">
+        <v>7341.14</v>
+      </c>
+      <c r="J2502" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2502" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2502" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2502" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2503" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>877</v>
+      </c>
+      <c r="I2503">
+        <v>592.85</v>
+      </c>
+      <c r="J2503" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2503" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2503" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2503" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2504" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2504">
+        <v>9907.2800000000007</v>
+      </c>
+      <c r="J2504" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2504" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2504" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2504" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2505" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2505" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>902</v>
+      </c>
+      <c r="I2505">
+        <v>3809.43</v>
+      </c>
+      <c r="J2505" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2505" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2505" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2505" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2506" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2506" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2506">
+        <v>2500.94</v>
+      </c>
+      <c r="J2506" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2506" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2506" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2506" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2507" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2507">
+        <v>190.89</v>
+      </c>
+      <c r="J2507" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2507" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2507" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2507" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2508" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2508" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2508">
+        <v>2294.7199999999998</v>
+      </c>
+      <c r="J2508" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2508" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2508" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2508" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2509" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2509" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2509" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2509">
+        <v>1352.37</v>
+      </c>
+      <c r="J2509" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2509" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2509" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2509" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2510" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2510" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2510">
+        <v>4797.26</v>
+      </c>
+      <c r="J2510" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2510" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2510" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2510" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2511" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2511" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2511">
+        <v>4757.1400000000003</v>
+      </c>
+      <c r="J2511" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2511" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2511" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2511" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2512" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2512" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2512" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2512">
+        <v>3190</v>
+      </c>
+      <c r="J2512" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2512" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2512" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2512" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2513" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2513" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2513">
+        <v>1897.34</v>
+      </c>
+      <c r="J2513" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2513" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2513" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2513" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2514" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2514" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2514" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2514">
+        <v>1327.67</v>
+      </c>
+      <c r="J2514" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2514" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2514" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2514" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2515" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2515" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2515">
+        <v>1539.98</v>
+      </c>
+      <c r="J2515" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2515" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2515" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2515" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2516" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2516" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2516">
+        <v>1260.94</v>
+      </c>
+      <c r="J2516" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2516" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2516" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2516" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2517" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>905</v>
+      </c>
+      <c r="G2517" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2517">
+        <v>1519.88</v>
+      </c>
+      <c r="J2517" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2517" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2517" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2517" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2518" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2518" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2518" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2518">
+        <v>2950.48</v>
+      </c>
+      <c r="J2518" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2518" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2518" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2518" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2519" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2519" t="s">
+        <v>931</v>
+      </c>
+      <c r="G2519" t="s">
+        <v>932</v>
+      </c>
+      <c r="I2519">
+        <v>397.65</v>
+      </c>
+      <c r="J2519" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2519" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2519" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2519" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2520" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2520" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2520">
+        <v>803.52</v>
+      </c>
+      <c r="J2520" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2520" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2520" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2520" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2521" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2521" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2521">
+        <v>2035.8</v>
+      </c>
+      <c r="J2521" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2521" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2521" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2521" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2522" s="1">
+        <v>45540</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2522" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2522">
+        <v>19433</v>
+      </c>
+      <c r="J2522" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2522" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2522" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2522" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2523" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2523" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2523">
+        <v>6576</v>
+      </c>
+      <c r="J2523" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2523" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2523" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2523" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2524" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2524" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2524">
+        <v>11197</v>
+      </c>
+      <c r="J2524" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2524" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2524" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2524" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2525" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2525" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2525" t="s">
+        <v>681</v>
+      </c>
+      <c r="I2525">
+        <v>1763.25</v>
+      </c>
+      <c r="J2525" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2525" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2525" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2525" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2526" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2526" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2526">
+        <v>3120.12</v>
+      </c>
+      <c r="J2526" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2526" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2526" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2526" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2527" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2527" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2527">
+        <v>8811.3700000000008</v>
+      </c>
+      <c r="J2527" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2527" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2527" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2527" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2528" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2528" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2528">
+        <v>2750.94</v>
+      </c>
+      <c r="J2528" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2528" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2528" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2528" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2529" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2529" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2529" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2529">
+        <v>36898.74</v>
+      </c>
+      <c r="J2529" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2529" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2529" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2529" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2530" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2530" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2530" t="s">
+        <v>915</v>
+      </c>
+      <c r="I2530">
+        <v>20300</v>
+      </c>
+      <c r="J2530" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2530" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2530" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2530" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2531" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2531" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2531" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2531">
+        <v>15008.96</v>
+      </c>
+      <c r="J2531" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2531" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2531" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2531" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2532" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2532" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2532" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2532">
+        <v>19799.849999999999</v>
+      </c>
+      <c r="J2532" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2532" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2532" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2532" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2533" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2533" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2533" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2533">
+        <v>3920</v>
+      </c>
+      <c r="J2533" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2533" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2533" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2533" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2534" s="1">
+        <v>45541</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>936</v>
+      </c>
+      <c r="F2534" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2534" t="s">
+        <v>861</v>
+      </c>
+      <c r="I2534">
+        <v>5540</v>
+      </c>
+      <c r="J2534" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2534" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2534" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2534" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2535" s="1">
+        <v>45546</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>936</v>
+      </c>
+      <c r="F2535" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2535" t="s">
+        <v>861</v>
+      </c>
+      <c r="I2535">
+        <v>900</v>
+      </c>
+      <c r="J2535" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2535" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2535" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2535" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2536" s="1">
+        <v>45560</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>855</v>
+      </c>
+      <c r="F2536" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2536" t="s">
+        <v>930</v>
+      </c>
+      <c r="I2536">
+        <v>14343.4</v>
+      </c>
+      <c r="J2536" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2536" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2536" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2536" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2537" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2537" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2537" t="s">
+        <v>930</v>
+      </c>
+      <c r="I2537">
+        <v>8908.7999999999993</v>
+      </c>
+      <c r="J2537" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2537" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2537" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2537" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2538" s="1">
+        <v>45561</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2538" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2538">
+        <v>28957.08</v>
+      </c>
+      <c r="J2538" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2538" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2538" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2538" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>septiembre</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/datasets/materia_prima.xlsx
+++ b/datasets/materia_prima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{38D9FD0F-B34C-4670-8CE7-5D25B9E2427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A866D6-D352-418A-BC9E-1883550C13A5}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{38D9FD0F-B34C-4670-8CE7-5D25B9E2427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66DB494-58A5-4B6E-9ED4-3D749391FA70}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7AEE2F05-903D-4716-8C11-BB7DB34B5004}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16498" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17722" uniqueCount="1133">
   <si>
     <t>FECHA</t>
   </si>
@@ -3219,6 +3219,222 @@
   </si>
   <si>
     <t>LA HUERTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128080 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128783 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128722 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTVV 3185 - PROTOTIPO T01 VIALBA VILLAS DEL PEDREGAL III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 0411 </t>
+  </si>
+  <si>
+    <t>CTVV  3196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION B49322 </t>
+  </si>
+  <si>
+    <t>CIV190725P606 OV2405962</t>
+  </si>
+  <si>
+    <t>MATERIAL COMSA</t>
+  </si>
+  <si>
+    <t>MATERIAL TENERIFE</t>
+  </si>
+  <si>
+    <t>ELEVADOR - LIVERPOOL</t>
+  </si>
+  <si>
+    <t>HERRAMIETAS USA</t>
+  </si>
+  <si>
+    <t>COMPRA FRIGOBAR</t>
+  </si>
+  <si>
+    <t>COMPRA DE PARRILLAS Y CAMPANAS</t>
+  </si>
+  <si>
+    <t>COMPRA DE CAMPANA</t>
+  </si>
+  <si>
+    <t>COMPRA DE SENSORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128088 </t>
+  </si>
+  <si>
+    <t>COTIZACION 136898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCA INTEGRADORES                        </t>
+  </si>
+  <si>
+    <t>CTVV  2813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7644 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTOS JAKO                          </t>
+  </si>
+  <si>
+    <t>XAXX0101010004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7662 </t>
+  </si>
+  <si>
+    <t>COTIZACION 7663</t>
+  </si>
+  <si>
+    <t>COTIZACION 867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128833 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAXX0101010004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128268 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 129799 </t>
+  </si>
+  <si>
+    <t>CTVV  2990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128830                     </t>
+  </si>
+  <si>
+    <t>CTVV 3238</t>
+  </si>
+  <si>
+    <t>CTVV 3238 - PROPUESTA MILAN 3 CASAS MORELIA- MEDACASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 129704       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 128848                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 129952 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 15003912                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 130769 REF 0000000                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 2211 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7160 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7181 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPEJOS VV 2211 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 129641 REF 0000000                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 130907 REF 0000000                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 311644 REF 0000000                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 309884 REF 0000000                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 15004085                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7701 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7721 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAXX0101010004 REF 0000000                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 7229 REF 0000000                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACION 131737 REF 0000000                                                             </t>
+  </si>
+  <si>
+    <t>CTVV 3222 - Prototipo Bilbao Torres Castillejo Torre A Coto B</t>
+  </si>
+  <si>
+    <t>CTVV  2813 - JML 2a Etapa</t>
+  </si>
+  <si>
+    <t>TRANSFORMACION PIEDRA</t>
+  </si>
+  <si>
+    <t>CRISTALES</t>
+  </si>
+  <si>
+    <t>CTVV 3087 - CASA VILLA VELZAQUEZ - CARLOS VILLICAÑA</t>
+  </si>
+  <si>
+    <t>CTVV 3117 - ARRACHAZ ALTACIA - GRUPO MOGAR</t>
+  </si>
+  <si>
+    <t>TABLEROS</t>
+  </si>
+  <si>
+    <t>CTVV 3081 - DE LEÑA ALTACIA - GRUPO BLOGAR</t>
+  </si>
+  <si>
+    <t>MONOMANDO</t>
+  </si>
+  <si>
+    <t>YARETZI SALGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPAS PARA PUERTAS </t>
+  </si>
+  <si>
+    <t>CUBRECANTO</t>
+  </si>
+  <si>
+    <t>BOLSAS DE BASURA</t>
+  </si>
+  <si>
+    <t>CTVV 3270</t>
+  </si>
+  <si>
+    <t>CTVV 3270 - PUREMBE-EDUARDO LARA</t>
+  </si>
+  <si>
+    <t>SAYER LACK</t>
+  </si>
+  <si>
+    <t>CRÉDITO TENERIFE</t>
+  </si>
+  <si>
+    <t>Araceli Sayer Lack</t>
   </si>
 </sst>
 </file>
@@ -3291,8 +3507,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}" name="Tabla1" displayName="Tabla1" ref="A1:M2866" totalsRowShown="0">
-  <autoFilter ref="A1:M2866" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}" name="Tabla1" displayName="Tabla1" ref="A1:M3061" totalsRowShown="0">
+  <autoFilter ref="A1:M3061" xr:uid="{DC8FB9CE-6163-469F-9EF3-856775AB6785}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{4386F709-E119-4080-973E-B598D9700BD2}" name="FECHA" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{24C42814-9DD7-4122-B503-4E5E2203BDB9}" name="# REQUISICIÓN"/>
@@ -3631,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD36A5D-8C83-42C2-9C72-5D7D738EDD89}">
-  <dimension ref="A1:M2866"/>
+  <dimension ref="A1:M3061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2263" workbookViewId="0">
-      <selection activeCell="I2083" sqref="I2083"/>
+    <sheetView tabSelected="1" topLeftCell="A3049" workbookViewId="0">
+      <selection activeCell="J2865" sqref="J2865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -77398,7 +77614,7 @@
       <c r="L2539" t="s">
         <v>31</v>
       </c>
-      <c r="M2539" s="3" t="str">
+      <c r="M2539" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77431,7 +77647,7 @@
       <c r="L2540" t="s">
         <v>17</v>
       </c>
-      <c r="M2540" s="3" t="str">
+      <c r="M2540" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77464,7 +77680,7 @@
       <c r="L2541" t="s">
         <v>27</v>
       </c>
-      <c r="M2541" s="3" t="str">
+      <c r="M2541" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77497,7 +77713,7 @@
       <c r="L2542" t="s">
         <v>27</v>
       </c>
-      <c r="M2542" s="3" t="str">
+      <c r="M2542" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77530,7 +77746,7 @@
       <c r="L2543" t="s">
         <v>27</v>
       </c>
-      <c r="M2543" s="3" t="str">
+      <c r="M2543" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77563,7 +77779,7 @@
       <c r="L2544" t="s">
         <v>27</v>
       </c>
-      <c r="M2544" s="3" t="str">
+      <c r="M2544" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77593,7 +77809,7 @@
       <c r="L2545" t="s">
         <v>31</v>
       </c>
-      <c r="M2545" s="3" t="str">
+      <c r="M2545" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77623,7 +77839,7 @@
       <c r="L2546" t="s">
         <v>31</v>
       </c>
-      <c r="M2546" s="3" t="str">
+      <c r="M2546" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77656,7 +77872,7 @@
       <c r="L2547" t="s">
         <v>27</v>
       </c>
-      <c r="M2547" s="3" t="str">
+      <c r="M2547" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77689,7 +77905,7 @@
       <c r="L2548" t="s">
         <v>17</v>
       </c>
-      <c r="M2548" s="3" t="str">
+      <c r="M2548" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77722,7 +77938,7 @@
       <c r="L2549" t="s">
         <v>17</v>
       </c>
-      <c r="M2549" s="3" t="str">
+      <c r="M2549" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77755,7 +77971,7 @@
       <c r="L2550" t="s">
         <v>27</v>
       </c>
-      <c r="M2550" s="3" t="str">
+      <c r="M2550" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77785,7 +78001,7 @@
       <c r="L2551" t="s">
         <v>31</v>
       </c>
-      <c r="M2551" s="3" t="str">
+      <c r="M2551" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77818,7 +78034,7 @@
       <c r="L2552" t="s">
         <v>17</v>
       </c>
-      <c r="M2552" s="3" t="str">
+      <c r="M2552" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77848,7 +78064,7 @@
       <c r="L2553" t="s">
         <v>31</v>
       </c>
-      <c r="M2553" s="3" t="str">
+      <c r="M2553" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77878,7 +78094,7 @@
       <c r="L2554" t="s">
         <v>31</v>
       </c>
-      <c r="M2554" s="3" t="str">
+      <c r="M2554" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77911,7 +78127,7 @@
       <c r="L2555" t="s">
         <v>17</v>
       </c>
-      <c r="M2555" s="3" t="str">
+      <c r="M2555" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77944,7 +78160,7 @@
       <c r="L2556" t="s">
         <v>27</v>
       </c>
-      <c r="M2556" s="3" t="str">
+      <c r="M2556" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -77977,7 +78193,7 @@
       <c r="L2557" t="s">
         <v>27</v>
       </c>
-      <c r="M2557" s="3" t="str">
+      <c r="M2557" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78010,7 +78226,7 @@
       <c r="L2558" t="s">
         <v>17</v>
       </c>
-      <c r="M2558" s="3" t="str">
+      <c r="M2558" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78043,7 +78259,7 @@
       <c r="L2559" t="s">
         <v>17</v>
       </c>
-      <c r="M2559" s="3" t="str">
+      <c r="M2559" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78073,7 +78289,7 @@
       <c r="L2560" t="s">
         <v>31</v>
       </c>
-      <c r="M2560" s="3" t="str">
+      <c r="M2560" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78103,7 +78319,7 @@
       <c r="L2561" t="s">
         <v>31</v>
       </c>
-      <c r="M2561" s="3" t="str">
+      <c r="M2561" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78136,7 +78352,7 @@
       <c r="L2562" t="s">
         <v>17</v>
       </c>
-      <c r="M2562" s="3" t="str">
+      <c r="M2562" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78169,7 +78385,7 @@
       <c r="L2563" t="s">
         <v>17</v>
       </c>
-      <c r="M2563" s="3" t="str">
+      <c r="M2563" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78202,7 +78418,7 @@
       <c r="L2564" t="s">
         <v>27</v>
       </c>
-      <c r="M2564" s="3" t="str">
+      <c r="M2564" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78235,7 +78451,7 @@
       <c r="L2565" t="s">
         <v>27</v>
       </c>
-      <c r="M2565" s="3" t="str">
+      <c r="M2565" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78268,7 +78484,7 @@
       <c r="L2566" t="s">
         <v>17</v>
       </c>
-      <c r="M2566" s="3" t="str">
+      <c r="M2566" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78301,7 +78517,7 @@
       <c r="L2567" t="s">
         <v>17</v>
       </c>
-      <c r="M2567" s="3" t="str">
+      <c r="M2567" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78334,7 +78550,7 @@
       <c r="L2568" t="s">
         <v>27</v>
       </c>
-      <c r="M2568" s="3" t="str">
+      <c r="M2568" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78367,7 +78583,7 @@
       <c r="L2569" t="s">
         <v>27</v>
       </c>
-      <c r="M2569" s="3" t="str">
+      <c r="M2569" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78400,7 +78616,7 @@
       <c r="L2570" t="s">
         <v>27</v>
       </c>
-      <c r="M2570" s="3" t="str">
+      <c r="M2570" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78430,7 +78646,7 @@
       <c r="L2571" t="s">
         <v>31</v>
       </c>
-      <c r="M2571" s="3" t="str">
+      <c r="M2571" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78463,7 +78679,7 @@
       <c r="L2572" t="s">
         <v>17</v>
       </c>
-      <c r="M2572" s="3" t="str">
+      <c r="M2572" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78493,7 +78709,7 @@
       <c r="L2573" t="s">
         <v>31</v>
       </c>
-      <c r="M2573" s="3" t="str">
+      <c r="M2573" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78523,7 +78739,7 @@
       <c r="L2574" t="s">
         <v>31</v>
       </c>
-      <c r="M2574" s="3" t="str">
+      <c r="M2574" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78553,7 +78769,7 @@
       <c r="L2575" t="s">
         <v>31</v>
       </c>
-      <c r="M2575" s="3" t="str">
+      <c r="M2575" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78586,7 +78802,7 @@
       <c r="L2576" t="s">
         <v>27</v>
       </c>
-      <c r="M2576" s="3" t="str">
+      <c r="M2576" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78619,7 +78835,7 @@
       <c r="L2577" t="s">
         <v>17</v>
       </c>
-      <c r="M2577" s="3" t="str">
+      <c r="M2577" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78649,7 +78865,7 @@
       <c r="L2578" t="s">
         <v>31</v>
       </c>
-      <c r="M2578" s="3" t="str">
+      <c r="M2578" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78682,7 +78898,7 @@
       <c r="L2579" t="s">
         <v>17</v>
       </c>
-      <c r="M2579" s="3" t="str">
+      <c r="M2579" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78715,7 +78931,7 @@
       <c r="L2580" t="s">
         <v>27</v>
       </c>
-      <c r="M2580" s="3" t="str">
+      <c r="M2580" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78748,7 +78964,7 @@
       <c r="L2581" t="s">
         <v>17</v>
       </c>
-      <c r="M2581" s="3" t="str">
+      <c r="M2581" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78781,7 +78997,7 @@
       <c r="L2582" t="s">
         <v>27</v>
       </c>
-      <c r="M2582" s="3" t="str">
+      <c r="M2582" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78814,7 +79030,7 @@
       <c r="L2583" t="s">
         <v>27</v>
       </c>
-      <c r="M2583" s="3" t="str">
+      <c r="M2583" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78847,7 +79063,7 @@
       <c r="L2584" t="s">
         <v>17</v>
       </c>
-      <c r="M2584" s="3" t="str">
+      <c r="M2584" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78880,7 +79096,7 @@
       <c r="L2585" t="s">
         <v>17</v>
       </c>
-      <c r="M2585" s="3" t="str">
+      <c r="M2585" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78910,7 +79126,7 @@
       <c r="L2586" t="s">
         <v>31</v>
       </c>
-      <c r="M2586" s="3" t="str">
+      <c r="M2586" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78943,7 +79159,7 @@
       <c r="L2587" t="s">
         <v>27</v>
       </c>
-      <c r="M2587" s="3" t="str">
+      <c r="M2587" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -78976,7 +79192,7 @@
       <c r="L2588" t="s">
         <v>27</v>
       </c>
-      <c r="M2588" s="3" t="str">
+      <c r="M2588" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79009,7 +79225,7 @@
       <c r="L2589" t="s">
         <v>17</v>
       </c>
-      <c r="M2589" s="3" t="str">
+      <c r="M2589" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79042,7 +79258,7 @@
       <c r="L2590" t="s">
         <v>17</v>
       </c>
-      <c r="M2590" s="3" t="str">
+      <c r="M2590" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79075,7 +79291,7 @@
       <c r="L2591" t="s">
         <v>17</v>
       </c>
-      <c r="M2591" s="3" t="str">
+      <c r="M2591" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79108,7 +79324,7 @@
       <c r="L2592" t="s">
         <v>17</v>
       </c>
-      <c r="M2592" s="3" t="str">
+      <c r="M2592" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79141,7 +79357,7 @@
       <c r="L2593" t="s">
         <v>17</v>
       </c>
-      <c r="M2593" s="3" t="str">
+      <c r="M2593" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79174,7 +79390,7 @@
       <c r="L2594" t="s">
         <v>17</v>
       </c>
-      <c r="M2594" s="3" t="str">
+      <c r="M2594" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79207,7 +79423,7 @@
       <c r="L2595" t="s">
         <v>17</v>
       </c>
-      <c r="M2595" s="3" t="str">
+      <c r="M2595" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79240,7 +79456,7 @@
       <c r="L2596" t="s">
         <v>17</v>
       </c>
-      <c r="M2596" s="3" t="str">
+      <c r="M2596" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79273,7 +79489,7 @@
       <c r="L2597" t="s">
         <v>27</v>
       </c>
-      <c r="M2597" s="3" t="str">
+      <c r="M2597" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79306,7 +79522,7 @@
       <c r="L2598" t="s">
         <v>27</v>
       </c>
-      <c r="M2598" s="3" t="str">
+      <c r="M2598" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79339,7 +79555,7 @@
       <c r="L2599" t="s">
         <v>27</v>
       </c>
-      <c r="M2599" s="3" t="str">
+      <c r="M2599" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79372,7 +79588,7 @@
       <c r="L2600" t="s">
         <v>17</v>
       </c>
-      <c r="M2600" s="3" t="str">
+      <c r="M2600" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79405,7 +79621,7 @@
       <c r="L2601" t="s">
         <v>17</v>
       </c>
-      <c r="M2601" s="3" t="str">
+      <c r="M2601" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79438,7 +79654,7 @@
       <c r="L2602" t="s">
         <v>27</v>
       </c>
-      <c r="M2602" s="3" t="str">
+      <c r="M2602" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79471,7 +79687,7 @@
       <c r="L2603" t="s">
         <v>27</v>
       </c>
-      <c r="M2603" s="3" t="str">
+      <c r="M2603" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79501,7 +79717,7 @@
       <c r="L2604" t="s">
         <v>31</v>
       </c>
-      <c r="M2604" s="3" t="str">
+      <c r="M2604" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79534,7 +79750,7 @@
       <c r="L2605" t="s">
         <v>17</v>
       </c>
-      <c r="M2605" s="3" t="str">
+      <c r="M2605" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79567,7 +79783,7 @@
       <c r="L2606" t="s">
         <v>17</v>
       </c>
-      <c r="M2606" s="3" t="str">
+      <c r="M2606" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79600,7 +79816,7 @@
       <c r="L2607" t="s">
         <v>17</v>
       </c>
-      <c r="M2607" s="3" t="str">
+      <c r="M2607" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79633,7 +79849,7 @@
       <c r="L2608" t="s">
         <v>27</v>
       </c>
-      <c r="M2608" s="3" t="str">
+      <c r="M2608" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79666,7 +79882,7 @@
       <c r="L2609" t="s">
         <v>27</v>
       </c>
-      <c r="M2609" s="3" t="str">
+      <c r="M2609" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79699,7 +79915,7 @@
       <c r="L2610" t="s">
         <v>27</v>
       </c>
-      <c r="M2610" s="3" t="str">
+      <c r="M2610" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79732,7 +79948,7 @@
       <c r="L2611" t="s">
         <v>17</v>
       </c>
-      <c r="M2611" s="3" t="str">
+      <c r="M2611" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79765,7 +79981,7 @@
       <c r="L2612" t="s">
         <v>17</v>
       </c>
-      <c r="M2612" s="3" t="str">
+      <c r="M2612" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79798,7 +80014,7 @@
       <c r="L2613" t="s">
         <v>27</v>
       </c>
-      <c r="M2613" s="3" t="str">
+      <c r="M2613" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79831,7 +80047,7 @@
       <c r="L2614" t="s">
         <v>17</v>
       </c>
-      <c r="M2614" s="3" t="str">
+      <c r="M2614" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79864,7 +80080,7 @@
       <c r="L2615" t="s">
         <v>27</v>
       </c>
-      <c r="M2615" s="3" t="str">
+      <c r="M2615" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79897,7 +80113,7 @@
       <c r="L2616" t="s">
         <v>27</v>
       </c>
-      <c r="M2616" s="3" t="str">
+      <c r="M2616" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79930,7 +80146,7 @@
       <c r="L2617" t="s">
         <v>27</v>
       </c>
-      <c r="M2617" s="3" t="str">
+      <c r="M2617" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79963,7 +80179,7 @@
       <c r="L2618" t="s">
         <v>17</v>
       </c>
-      <c r="M2618" s="3" t="str">
+      <c r="M2618" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -79996,7 +80212,7 @@
       <c r="L2619" t="s">
         <v>17</v>
       </c>
-      <c r="M2619" s="3" t="str">
+      <c r="M2619" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80026,7 +80242,7 @@
       <c r="L2620" t="s">
         <v>31</v>
       </c>
-      <c r="M2620" s="3" t="str">
+      <c r="M2620" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80059,7 +80275,7 @@
       <c r="L2621" t="s">
         <v>17</v>
       </c>
-      <c r="M2621" s="3" t="str">
+      <c r="M2621" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80092,7 +80308,7 @@
       <c r="L2622" t="s">
         <v>17</v>
       </c>
-      <c r="M2622" s="3" t="str">
+      <c r="M2622" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80125,7 +80341,7 @@
       <c r="L2623" t="s">
         <v>17</v>
       </c>
-      <c r="M2623" s="3" t="str">
+      <c r="M2623" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80158,7 +80374,7 @@
       <c r="L2624" t="s">
         <v>17</v>
       </c>
-      <c r="M2624" s="3" t="str">
+      <c r="M2624" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80191,7 +80407,7 @@
       <c r="L2625" t="s">
         <v>27</v>
       </c>
-      <c r="M2625" s="3" t="str">
+      <c r="M2625" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80224,7 +80440,7 @@
       <c r="L2626" t="s">
         <v>27</v>
       </c>
-      <c r="M2626" s="3" t="str">
+      <c r="M2626" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80257,7 +80473,7 @@
       <c r="L2627" t="s">
         <v>17</v>
       </c>
-      <c r="M2627" s="3" t="str">
+      <c r="M2627" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80290,7 +80506,7 @@
       <c r="L2628" t="s">
         <v>27</v>
       </c>
-      <c r="M2628" s="3" t="str">
+      <c r="M2628" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80317,7 +80533,7 @@
       <c r="L2629" t="s">
         <v>31</v>
       </c>
-      <c r="M2629" s="3" t="str">
+      <c r="M2629" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80347,7 +80563,7 @@
       <c r="L2630" t="s">
         <v>31</v>
       </c>
-      <c r="M2630" s="3" t="str">
+      <c r="M2630" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80380,7 +80596,7 @@
       <c r="L2631" t="s">
         <v>27</v>
       </c>
-      <c r="M2631" s="3" t="str">
+      <c r="M2631" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80413,7 +80629,7 @@
       <c r="L2632" t="s">
         <v>27</v>
       </c>
-      <c r="M2632" s="3" t="str">
+      <c r="M2632" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80446,7 +80662,7 @@
       <c r="L2633" t="s">
         <v>27</v>
       </c>
-      <c r="M2633" s="3" t="str">
+      <c r="M2633" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80479,7 +80695,7 @@
       <c r="L2634" t="s">
         <v>17</v>
       </c>
-      <c r="M2634" s="3" t="str">
+      <c r="M2634" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80509,7 +80725,7 @@
       <c r="L2635" t="s">
         <v>31</v>
       </c>
-      <c r="M2635" s="3" t="str">
+      <c r="M2635" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80542,7 +80758,7 @@
       <c r="L2636" t="s">
         <v>17</v>
       </c>
-      <c r="M2636" s="3" t="str">
+      <c r="M2636" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80575,7 +80791,7 @@
       <c r="L2637" t="s">
         <v>27</v>
       </c>
-      <c r="M2637" s="3" t="str">
+      <c r="M2637" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80608,7 +80824,7 @@
       <c r="L2638" t="s">
         <v>17</v>
       </c>
-      <c r="M2638" s="3" t="str">
+      <c r="M2638" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80641,7 +80857,7 @@
       <c r="L2639" t="s">
         <v>17</v>
       </c>
-      <c r="M2639" s="3" t="str">
+      <c r="M2639" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80674,7 +80890,7 @@
       <c r="L2640" t="s">
         <v>17</v>
       </c>
-      <c r="M2640" s="3" t="str">
+      <c r="M2640" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80707,7 +80923,7 @@
       <c r="L2641" t="s">
         <v>27</v>
       </c>
-      <c r="M2641" s="3" t="str">
+      <c r="M2641" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80740,7 +80956,7 @@
       <c r="L2642" t="s">
         <v>17</v>
       </c>
-      <c r="M2642" s="3" t="str">
+      <c r="M2642" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80773,7 +80989,7 @@
       <c r="L2643" t="s">
         <v>17</v>
       </c>
-      <c r="M2643" s="3" t="str">
+      <c r="M2643" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80806,7 +81022,7 @@
       <c r="L2644" t="s">
         <v>17</v>
       </c>
-      <c r="M2644" s="3" t="str">
+      <c r="M2644" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80839,7 +81055,7 @@
       <c r="L2645" t="s">
         <v>17</v>
       </c>
-      <c r="M2645" s="3" t="str">
+      <c r="M2645" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80872,7 +81088,7 @@
       <c r="L2646" t="s">
         <v>27</v>
       </c>
-      <c r="M2646" s="3" t="str">
+      <c r="M2646" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80905,7 +81121,7 @@
       <c r="L2647" t="s">
         <v>27</v>
       </c>
-      <c r="M2647" s="3" t="str">
+      <c r="M2647" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80938,7 +81154,7 @@
       <c r="L2648" t="s">
         <v>17</v>
       </c>
-      <c r="M2648" s="3" t="str">
+      <c r="M2648" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -80971,7 +81187,7 @@
       <c r="L2649" t="s">
         <v>27</v>
       </c>
-      <c r="M2649" s="3" t="str">
+      <c r="M2649" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81004,7 +81220,7 @@
       <c r="L2650" t="s">
         <v>27</v>
       </c>
-      <c r="M2650" s="3" t="str">
+      <c r="M2650" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81037,7 +81253,7 @@
       <c r="L2651" t="s">
         <v>17</v>
       </c>
-      <c r="M2651" s="3" t="str">
+      <c r="M2651" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81070,7 +81286,7 @@
       <c r="L2652" t="s">
         <v>17</v>
       </c>
-      <c r="M2652" s="3" t="str">
+      <c r="M2652" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81100,7 +81316,7 @@
       <c r="L2653" t="s">
         <v>17</v>
       </c>
-      <c r="M2653" s="3" t="str">
+      <c r="M2653" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81130,7 +81346,7 @@
       <c r="L2654" t="s">
         <v>17</v>
       </c>
-      <c r="M2654" s="3" t="str">
+      <c r="M2654" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81160,7 +81376,7 @@
       <c r="L2655" t="s">
         <v>27</v>
       </c>
-      <c r="M2655" s="3" t="str">
+      <c r="M2655" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81190,7 +81406,7 @@
       <c r="L2656" t="s">
         <v>17</v>
       </c>
-      <c r="M2656" s="3" t="str">
+      <c r="M2656" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81220,7 +81436,7 @@
       <c r="L2657" t="s">
         <v>17</v>
       </c>
-      <c r="M2657" s="3" t="str">
+      <c r="M2657" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81250,7 +81466,7 @@
       <c r="L2658" t="s">
         <v>17</v>
       </c>
-      <c r="M2658" s="3" t="str">
+      <c r="M2658" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81280,7 +81496,7 @@
       <c r="L2659" t="s">
         <v>27</v>
       </c>
-      <c r="M2659" s="3" t="str">
+      <c r="M2659" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81310,7 +81526,7 @@
       <c r="L2660" t="s">
         <v>27</v>
       </c>
-      <c r="M2660" s="3" t="str">
+      <c r="M2660" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81340,7 +81556,7 @@
       <c r="L2661" t="s">
         <v>17</v>
       </c>
-      <c r="M2661" s="3" t="str">
+      <c r="M2661" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81370,7 +81586,7 @@
       <c r="L2662" t="s">
         <v>27</v>
       </c>
-      <c r="M2662" s="3" t="str">
+      <c r="M2662" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81400,7 +81616,7 @@
       <c r="L2663" t="s">
         <v>27</v>
       </c>
-      <c r="M2663" s="3" t="str">
+      <c r="M2663" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81430,7 +81646,7 @@
       <c r="L2664" t="s">
         <v>27</v>
       </c>
-      <c r="M2664" s="3" t="str">
+      <c r="M2664" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81460,7 +81676,7 @@
       <c r="L2665" t="s">
         <v>27</v>
       </c>
-      <c r="M2665" s="3" t="str">
+      <c r="M2665" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81490,7 +81706,7 @@
       <c r="L2666" t="s">
         <v>17</v>
       </c>
-      <c r="M2666" s="3" t="str">
+      <c r="M2666" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81520,7 +81736,7 @@
       <c r="L2667" t="s">
         <v>27</v>
       </c>
-      <c r="M2667" s="3" t="str">
+      <c r="M2667" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81550,7 +81766,7 @@
       <c r="L2668" t="s">
         <v>27</v>
       </c>
-      <c r="M2668" s="3" t="str">
+      <c r="M2668" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81580,7 +81796,7 @@
       <c r="L2669" t="s">
         <v>27</v>
       </c>
-      <c r="M2669" s="3" t="str">
+      <c r="M2669" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81610,7 +81826,7 @@
       <c r="L2670" t="s">
         <v>27</v>
       </c>
-      <c r="M2670" s="3" t="str">
+      <c r="M2670" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81640,7 +81856,7 @@
       <c r="L2671" t="s">
         <v>17</v>
       </c>
-      <c r="M2671" s="3" t="str">
+      <c r="M2671" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81670,7 +81886,7 @@
       <c r="L2672" t="s">
         <v>27</v>
       </c>
-      <c r="M2672" s="3" t="str">
+      <c r="M2672" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81700,7 +81916,7 @@
       <c r="L2673" t="s">
         <v>27</v>
       </c>
-      <c r="M2673" s="3" t="str">
+      <c r="M2673" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81730,7 +81946,7 @@
       <c r="L2674" t="s">
         <v>27</v>
       </c>
-      <c r="M2674" s="3" t="str">
+      <c r="M2674" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81760,7 +81976,7 @@
       <c r="L2675" t="s">
         <v>17</v>
       </c>
-      <c r="M2675" s="3" t="str">
+      <c r="M2675" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81790,7 +82006,7 @@
       <c r="L2676" t="s">
         <v>17</v>
       </c>
-      <c r="M2676" s="3" t="str">
+      <c r="M2676" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81820,7 +82036,7 @@
       <c r="L2677" t="s">
         <v>17</v>
       </c>
-      <c r="M2677" s="3" t="str">
+      <c r="M2677" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81850,7 +82066,7 @@
       <c r="L2678" t="s">
         <v>17</v>
       </c>
-      <c r="M2678" s="3" t="str">
+      <c r="M2678" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81880,7 +82096,7 @@
       <c r="L2679" t="s">
         <v>17</v>
       </c>
-      <c r="M2679" s="3" t="str">
+      <c r="M2679" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81910,7 +82126,7 @@
       <c r="L2680" t="s">
         <v>27</v>
       </c>
-      <c r="M2680" s="3" t="str">
+      <c r="M2680" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81940,7 +82156,7 @@
       <c r="L2681" t="s">
         <v>17</v>
       </c>
-      <c r="M2681" s="3" t="str">
+      <c r="M2681" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -81970,7 +82186,7 @@
       <c r="L2682" t="s">
         <v>17</v>
       </c>
-      <c r="M2682" s="3" t="str">
+      <c r="M2682" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82000,7 +82216,7 @@
       <c r="L2683" t="s">
         <v>17</v>
       </c>
-      <c r="M2683" s="3" t="str">
+      <c r="M2683" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82030,7 +82246,7 @@
       <c r="L2684" t="s">
         <v>17</v>
       </c>
-      <c r="M2684" s="3" t="str">
+      <c r="M2684" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82060,7 +82276,7 @@
       <c r="L2685" t="s">
         <v>17</v>
       </c>
-      <c r="M2685" s="3" t="str">
+      <c r="M2685" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82090,7 +82306,7 @@
       <c r="L2686" t="s">
         <v>27</v>
       </c>
-      <c r="M2686" s="3" t="str">
+      <c r="M2686" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82120,7 +82336,7 @@
       <c r="L2687" t="s">
         <v>27</v>
       </c>
-      <c r="M2687" s="3" t="str">
+      <c r="M2687" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82150,7 +82366,7 @@
       <c r="L2688" t="s">
         <v>17</v>
       </c>
-      <c r="M2688" s="3" t="str">
+      <c r="M2688" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82180,7 +82396,7 @@
       <c r="L2689" t="s">
         <v>17</v>
       </c>
-      <c r="M2689" s="3" t="str">
+      <c r="M2689" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82210,7 +82426,7 @@
       <c r="L2690" t="s">
         <v>27</v>
       </c>
-      <c r="M2690" s="3" t="str">
+      <c r="M2690" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82240,7 +82456,7 @@
       <c r="L2691" t="s">
         <v>17</v>
       </c>
-      <c r="M2691" s="3" t="str">
+      <c r="M2691" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82270,7 +82486,7 @@
       <c r="L2692" t="s">
         <v>27</v>
       </c>
-      <c r="M2692" s="3" t="str">
+      <c r="M2692" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82300,7 +82516,7 @@
       <c r="L2693" t="s">
         <v>17</v>
       </c>
-      <c r="M2693" s="3" t="str">
+      <c r="M2693" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82330,7 +82546,7 @@
       <c r="L2694" t="s">
         <v>27</v>
       </c>
-      <c r="M2694" s="3" t="str">
+      <c r="M2694" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82360,7 +82576,7 @@
       <c r="L2695" t="s">
         <v>27</v>
       </c>
-      <c r="M2695" s="3" t="str">
+      <c r="M2695" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82390,7 +82606,7 @@
       <c r="L2696" t="s">
         <v>27</v>
       </c>
-      <c r="M2696" s="3" t="str">
+      <c r="M2696" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82420,7 +82636,7 @@
       <c r="L2697" t="s">
         <v>27</v>
       </c>
-      <c r="M2697" s="3" t="str">
+      <c r="M2697" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82450,7 +82666,7 @@
       <c r="L2698" t="s">
         <v>27</v>
       </c>
-      <c r="M2698" s="3" t="str">
+      <c r="M2698" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82480,7 +82696,7 @@
       <c r="L2699" t="s">
         <v>27</v>
       </c>
-      <c r="M2699" s="3" t="str">
+      <c r="M2699" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82510,7 +82726,7 @@
       <c r="L2700" t="s">
         <v>27</v>
       </c>
-      <c r="M2700" s="3" t="str">
+      <c r="M2700" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82540,7 +82756,7 @@
       <c r="L2701" t="s">
         <v>27</v>
       </c>
-      <c r="M2701" s="3" t="str">
+      <c r="M2701" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82570,7 +82786,7 @@
       <c r="L2702" t="s">
         <v>17</v>
       </c>
-      <c r="M2702" s="3" t="str">
+      <c r="M2702" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82600,7 +82816,7 @@
       <c r="L2703" t="s">
         <v>27</v>
       </c>
-      <c r="M2703" s="3" t="str">
+      <c r="M2703" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82630,7 +82846,7 @@
       <c r="L2704" t="s">
         <v>17</v>
       </c>
-      <c r="M2704" s="3" t="str">
+      <c r="M2704" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82660,7 +82876,7 @@
       <c r="L2705" t="s">
         <v>27</v>
       </c>
-      <c r="M2705" s="3" t="str">
+      <c r="M2705" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82690,7 +82906,7 @@
       <c r="L2706" t="s">
         <v>27</v>
       </c>
-      <c r="M2706" s="3" t="str">
+      <c r="M2706" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82720,7 +82936,7 @@
       <c r="L2707" t="s">
         <v>17</v>
       </c>
-      <c r="M2707" s="3" t="str">
+      <c r="M2707" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82750,7 +82966,7 @@
       <c r="L2708" t="s">
         <v>27</v>
       </c>
-      <c r="M2708" s="3" t="str">
+      <c r="M2708" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82780,7 +82996,7 @@
       <c r="L2709" t="s">
         <v>27</v>
       </c>
-      <c r="M2709" s="3" t="str">
+      <c r="M2709" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82810,7 +83026,7 @@
       <c r="L2710" t="s">
         <v>27</v>
       </c>
-      <c r="M2710" s="3" t="str">
+      <c r="M2710" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82840,7 +83056,7 @@
       <c r="L2711" t="s">
         <v>17</v>
       </c>
-      <c r="M2711" s="3" t="str">
+      <c r="M2711" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82870,7 +83086,7 @@
       <c r="L2712" t="s">
         <v>17</v>
       </c>
-      <c r="M2712" s="3" t="str">
+      <c r="M2712" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82900,7 +83116,7 @@
       <c r="L2713" t="s">
         <v>27</v>
       </c>
-      <c r="M2713" s="3" t="str">
+      <c r="M2713" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82930,7 +83146,7 @@
       <c r="L2714" t="s">
         <v>17</v>
       </c>
-      <c r="M2714" s="3" t="str">
+      <c r="M2714" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82960,7 +83176,7 @@
       <c r="L2715" t="s">
         <v>17</v>
       </c>
-      <c r="M2715" s="3" t="str">
+      <c r="M2715" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -82990,7 +83206,7 @@
       <c r="L2716" t="s">
         <v>27</v>
       </c>
-      <c r="M2716" s="3" t="str">
+      <c r="M2716" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83020,7 +83236,7 @@
       <c r="L2717" t="s">
         <v>27</v>
       </c>
-      <c r="M2717" s="3" t="str">
+      <c r="M2717" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83050,7 +83266,7 @@
       <c r="L2718" t="s">
         <v>27</v>
       </c>
-      <c r="M2718" s="3" t="str">
+      <c r="M2718" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83080,7 +83296,7 @@
       <c r="L2719" t="s">
         <v>17</v>
       </c>
-      <c r="M2719" s="3" t="str">
+      <c r="M2719" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83110,7 +83326,7 @@
       <c r="L2720" t="s">
         <v>17</v>
       </c>
-      <c r="M2720" s="3" t="str">
+      <c r="M2720" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83140,7 +83356,7 @@
       <c r="L2721" t="s">
         <v>17</v>
       </c>
-      <c r="M2721" s="3" t="str">
+      <c r="M2721" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83170,7 +83386,7 @@
       <c r="L2722" t="s">
         <v>17</v>
       </c>
-      <c r="M2722" s="3" t="str">
+      <c r="M2722" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83200,7 +83416,7 @@
       <c r="L2723" t="s">
         <v>17</v>
       </c>
-      <c r="M2723" s="3" t="str">
+      <c r="M2723" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83230,7 +83446,7 @@
       <c r="L2724" t="s">
         <v>17</v>
       </c>
-      <c r="M2724" s="3" t="str">
+      <c r="M2724" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83260,7 +83476,7 @@
       <c r="L2725" t="s">
         <v>27</v>
       </c>
-      <c r="M2725" s="3" t="str">
+      <c r="M2725" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83290,7 +83506,7 @@
       <c r="L2726" t="s">
         <v>27</v>
       </c>
-      <c r="M2726" s="3" t="str">
+      <c r="M2726" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83320,7 +83536,7 @@
       <c r="L2727" t="s">
         <v>17</v>
       </c>
-      <c r="M2727" s="3" t="str">
+      <c r="M2727" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83350,7 +83566,7 @@
       <c r="L2728" t="s">
         <v>27</v>
       </c>
-      <c r="M2728" s="3" t="str">
+      <c r="M2728" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83380,7 +83596,7 @@
       <c r="L2729" t="s">
         <v>27</v>
       </c>
-      <c r="M2729" s="3" t="str">
+      <c r="M2729" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83410,7 +83626,7 @@
       <c r="L2730" t="s">
         <v>17</v>
       </c>
-      <c r="M2730" s="3" t="str">
+      <c r="M2730" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83440,7 +83656,7 @@
       <c r="L2731" t="s">
         <v>27</v>
       </c>
-      <c r="M2731" s="3" t="str">
+      <c r="M2731" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83470,7 +83686,7 @@
       <c r="L2732" t="s">
         <v>17</v>
       </c>
-      <c r="M2732" s="3" t="str">
+      <c r="M2732" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83500,7 +83716,7 @@
       <c r="L2733" t="s">
         <v>17</v>
       </c>
-      <c r="M2733" s="3" t="str">
+      <c r="M2733" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83530,7 +83746,7 @@
       <c r="L2734" t="s">
         <v>27</v>
       </c>
-      <c r="M2734" s="3" t="str">
+      <c r="M2734" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83560,7 +83776,7 @@
       <c r="L2735" t="s">
         <v>17</v>
       </c>
-      <c r="M2735" s="3" t="str">
+      <c r="M2735" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83590,7 +83806,7 @@
       <c r="L2736" t="s">
         <v>17</v>
       </c>
-      <c r="M2736" s="3" t="str">
+      <c r="M2736" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83620,7 +83836,7 @@
       <c r="L2737" t="s">
         <v>17</v>
       </c>
-      <c r="M2737" s="3" t="str">
+      <c r="M2737" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83650,7 +83866,7 @@
       <c r="L2738" t="s">
         <v>17</v>
       </c>
-      <c r="M2738" s="3" t="str">
+      <c r="M2738" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83680,7 +83896,7 @@
       <c r="L2739" t="s">
         <v>27</v>
       </c>
-      <c r="M2739" s="3" t="str">
+      <c r="M2739" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83710,7 +83926,7 @@
       <c r="L2740" t="s">
         <v>17</v>
       </c>
-      <c r="M2740" s="3" t="str">
+      <c r="M2740" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83740,7 +83956,7 @@
       <c r="L2741" t="s">
         <v>27</v>
       </c>
-      <c r="M2741" s="3" t="str">
+      <c r="M2741" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83770,7 +83986,7 @@
       <c r="L2742" t="s">
         <v>27</v>
       </c>
-      <c r="M2742" s="3" t="str">
+      <c r="M2742" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83800,7 +84016,7 @@
       <c r="L2743" t="s">
         <v>27</v>
       </c>
-      <c r="M2743" s="3" t="str">
+      <c r="M2743" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83830,7 +84046,7 @@
       <c r="L2744" t="s">
         <v>27</v>
       </c>
-      <c r="M2744" s="3" t="str">
+      <c r="M2744" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83860,7 +84076,7 @@
       <c r="L2745" t="s">
         <v>27</v>
       </c>
-      <c r="M2745" s="3" t="str">
+      <c r="M2745" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83890,7 +84106,7 @@
       <c r="L2746" t="s">
         <v>27</v>
       </c>
-      <c r="M2746" s="3" t="str">
+      <c r="M2746" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83920,7 +84136,7 @@
       <c r="L2747" t="s">
         <v>27</v>
       </c>
-      <c r="M2747" s="3" t="str">
+      <c r="M2747" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83950,7 +84166,7 @@
       <c r="L2748" t="s">
         <v>27</v>
       </c>
-      <c r="M2748" s="3" t="str">
+      <c r="M2748" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -83980,7 +84196,7 @@
       <c r="L2749" t="s">
         <v>27</v>
       </c>
-      <c r="M2749" s="3" t="str">
+      <c r="M2749" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84010,7 +84226,7 @@
       <c r="L2750" t="s">
         <v>27</v>
       </c>
-      <c r="M2750" s="3" t="str">
+      <c r="M2750" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84040,7 +84256,7 @@
       <c r="L2751" t="s">
         <v>27</v>
       </c>
-      <c r="M2751" s="3" t="str">
+      <c r="M2751" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84070,7 +84286,7 @@
       <c r="L2752" t="s">
         <v>27</v>
       </c>
-      <c r="M2752" s="3" t="str">
+      <c r="M2752" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84100,7 +84316,7 @@
       <c r="L2753" t="s">
         <v>17</v>
       </c>
-      <c r="M2753" s="3" t="str">
+      <c r="M2753" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84130,7 +84346,7 @@
       <c r="L2754" t="s">
         <v>27</v>
       </c>
-      <c r="M2754" s="3" t="str">
+      <c r="M2754" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84160,7 +84376,7 @@
       <c r="L2755" t="s">
         <v>27</v>
       </c>
-      <c r="M2755" s="3" t="str">
+      <c r="M2755" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84190,7 +84406,7 @@
       <c r="L2756" t="s">
         <v>17</v>
       </c>
-      <c r="M2756" s="3" t="str">
+      <c r="M2756" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84220,7 +84436,7 @@
       <c r="L2757" t="s">
         <v>17</v>
       </c>
-      <c r="M2757" s="3" t="str">
+      <c r="M2757" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84250,7 +84466,7 @@
       <c r="L2758" t="s">
         <v>27</v>
       </c>
-      <c r="M2758" s="3" t="str">
+      <c r="M2758" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84280,7 +84496,7 @@
       <c r="L2759" t="s">
         <v>27</v>
       </c>
-      <c r="M2759" s="3" t="str">
+      <c r="M2759" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84310,7 +84526,7 @@
       <c r="L2760" t="s">
         <v>27</v>
       </c>
-      <c r="M2760" s="3" t="str">
+      <c r="M2760" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84340,7 +84556,7 @@
       <c r="L2761" t="s">
         <v>17</v>
       </c>
-      <c r="M2761" s="3" t="str">
+      <c r="M2761" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84370,7 +84586,7 @@
       <c r="L2762" t="s">
         <v>17</v>
       </c>
-      <c r="M2762" s="3" t="str">
+      <c r="M2762" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84400,7 +84616,7 @@
       <c r="L2763" t="s">
         <v>27</v>
       </c>
-      <c r="M2763" s="3" t="str">
+      <c r="M2763" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84430,7 +84646,7 @@
       <c r="L2764" t="s">
         <v>27</v>
       </c>
-      <c r="M2764" s="3" t="str">
+      <c r="M2764" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84460,7 +84676,7 @@
       <c r="L2765" t="s">
         <v>27</v>
       </c>
-      <c r="M2765" s="3" t="str">
+      <c r="M2765" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84490,7 +84706,7 @@
       <c r="L2766" t="s">
         <v>17</v>
       </c>
-      <c r="M2766" s="3" t="str">
+      <c r="M2766" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84520,7 +84736,7 @@
       <c r="L2767" t="s">
         <v>27</v>
       </c>
-      <c r="M2767" s="3" t="str">
+      <c r="M2767" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84550,7 +84766,7 @@
       <c r="L2768" t="s">
         <v>27</v>
       </c>
-      <c r="M2768" s="3" t="str">
+      <c r="M2768" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84580,7 +84796,7 @@
       <c r="L2769" t="s">
         <v>17</v>
       </c>
-      <c r="M2769" s="3" t="str">
+      <c r="M2769" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84610,7 +84826,7 @@
       <c r="L2770" t="s">
         <v>17</v>
       </c>
-      <c r="M2770" s="3" t="str">
+      <c r="M2770" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84640,7 +84856,7 @@
       <c r="L2771" t="s">
         <v>17</v>
       </c>
-      <c r="M2771" s="3" t="str">
+      <c r="M2771" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84670,7 +84886,7 @@
       <c r="L2772" t="s">
         <v>17</v>
       </c>
-      <c r="M2772" s="3" t="str">
+      <c r="M2772" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84700,7 +84916,7 @@
       <c r="L2773" t="s">
         <v>27</v>
       </c>
-      <c r="M2773" s="3" t="str">
+      <c r="M2773" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84730,7 +84946,7 @@
       <c r="L2774" t="s">
         <v>27</v>
       </c>
-      <c r="M2774" s="3" t="str">
+      <c r="M2774" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84760,7 +84976,7 @@
       <c r="L2775" t="s">
         <v>17</v>
       </c>
-      <c r="M2775" s="3" t="str">
+      <c r="M2775" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84790,7 +85006,7 @@
       <c r="L2776" t="s">
         <v>17</v>
       </c>
-      <c r="M2776" s="3" t="str">
+      <c r="M2776" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84820,7 +85036,7 @@
       <c r="L2777" t="s">
         <v>27</v>
       </c>
-      <c r="M2777" s="3" t="str">
+      <c r="M2777" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84850,7 +85066,7 @@
       <c r="L2778" t="s">
         <v>27</v>
       </c>
-      <c r="M2778" s="3" t="str">
+      <c r="M2778" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84880,7 +85096,7 @@
       <c r="L2779" t="s">
         <v>17</v>
       </c>
-      <c r="M2779" s="3" t="str">
+      <c r="M2779" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84910,7 +85126,7 @@
       <c r="L2780" t="s">
         <v>27</v>
       </c>
-      <c r="M2780" s="3" t="str">
+      <c r="M2780" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84940,7 +85156,7 @@
       <c r="L2781" t="s">
         <v>17</v>
       </c>
-      <c r="M2781" s="3" t="str">
+      <c r="M2781" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -84970,7 +85186,7 @@
       <c r="L2782" t="s">
         <v>27</v>
       </c>
-      <c r="M2782" s="3" t="str">
+      <c r="M2782" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85000,7 +85216,7 @@
       <c r="L2783" t="s">
         <v>27</v>
       </c>
-      <c r="M2783" s="3" t="str">
+      <c r="M2783" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85030,7 +85246,7 @@
       <c r="L2784" t="s">
         <v>27</v>
       </c>
-      <c r="M2784" s="3" t="str">
+      <c r="M2784" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85060,7 +85276,7 @@
       <c r="L2785" t="s">
         <v>27</v>
       </c>
-      <c r="M2785" s="3" t="str">
+      <c r="M2785" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85090,7 +85306,7 @@
       <c r="L2786" t="s">
         <v>17</v>
       </c>
-      <c r="M2786" s="3" t="str">
+      <c r="M2786" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85120,7 +85336,7 @@
       <c r="L2787" t="s">
         <v>17</v>
       </c>
-      <c r="M2787" s="3" t="str">
+      <c r="M2787" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85150,7 +85366,7 @@
       <c r="L2788" t="s">
         <v>27</v>
       </c>
-      <c r="M2788" s="3" t="str">
+      <c r="M2788" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85180,7 +85396,7 @@
       <c r="L2789" t="s">
         <v>27</v>
       </c>
-      <c r="M2789" s="3" t="str">
+      <c r="M2789" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85210,7 +85426,7 @@
       <c r="L2790" t="s">
         <v>17</v>
       </c>
-      <c r="M2790" s="3" t="str">
+      <c r="M2790" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85240,7 +85456,7 @@
       <c r="L2791" t="s">
         <v>17</v>
       </c>
-      <c r="M2791" s="3" t="str">
+      <c r="M2791" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85270,7 +85486,7 @@
       <c r="L2792" t="s">
         <v>27</v>
       </c>
-      <c r="M2792" s="3" t="str">
+      <c r="M2792" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85300,7 +85516,7 @@
       <c r="L2793" t="s">
         <v>17</v>
       </c>
-      <c r="M2793" s="3" t="str">
+      <c r="M2793" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85330,7 +85546,7 @@
       <c r="L2794" t="s">
         <v>17</v>
       </c>
-      <c r="M2794" s="3" t="str">
+      <c r="M2794" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85360,7 +85576,7 @@
       <c r="L2795" t="s">
         <v>27</v>
       </c>
-      <c r="M2795" s="3" t="str">
+      <c r="M2795" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85390,7 +85606,7 @@
       <c r="L2796" t="s">
         <v>17</v>
       </c>
-      <c r="M2796" s="3" t="str">
+      <c r="M2796" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85417,7 +85633,7 @@
       <c r="L2797" t="s">
         <v>31</v>
       </c>
-      <c r="M2797" s="3" t="str">
+      <c r="M2797" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85444,7 +85660,7 @@
       <c r="L2798" t="s">
         <v>31</v>
       </c>
-      <c r="M2798" s="3" t="str">
+      <c r="M2798" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85474,7 +85690,7 @@
       <c r="L2799" t="s">
         <v>27</v>
       </c>
-      <c r="M2799" s="3" t="str">
+      <c r="M2799" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85504,7 +85720,7 @@
       <c r="L2800" t="s">
         <v>27</v>
       </c>
-      <c r="M2800" s="3" t="str">
+      <c r="M2800" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85534,7 +85750,7 @@
       <c r="L2801" t="s">
         <v>27</v>
       </c>
-      <c r="M2801" s="3" t="str">
+      <c r="M2801" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85561,7 +85777,7 @@
       <c r="L2802" t="s">
         <v>31</v>
       </c>
-      <c r="M2802" s="3" t="str">
+      <c r="M2802" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85588,7 +85804,7 @@
       <c r="L2803" t="s">
         <v>31</v>
       </c>
-      <c r="M2803" s="3" t="str">
+      <c r="M2803" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85615,7 +85831,7 @@
       <c r="L2804" t="s">
         <v>31</v>
       </c>
-      <c r="M2804" s="3" t="str">
+      <c r="M2804" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85645,7 +85861,7 @@
       <c r="L2805" t="s">
         <v>27</v>
       </c>
-      <c r="M2805" s="3" t="str">
+      <c r="M2805" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85675,7 +85891,7 @@
       <c r="L2806" t="s">
         <v>27</v>
       </c>
-      <c r="M2806" s="3" t="str">
+      <c r="M2806" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85705,7 +85921,7 @@
       <c r="L2807" t="s">
         <v>27</v>
       </c>
-      <c r="M2807" s="3" t="str">
+      <c r="M2807" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85735,7 +85951,7 @@
       <c r="L2808" t="s">
         <v>17</v>
       </c>
-      <c r="M2808" s="3" t="str">
+      <c r="M2808" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85765,7 +85981,7 @@
       <c r="L2809" t="s">
         <v>27</v>
       </c>
-      <c r="M2809" s="3" t="str">
+      <c r="M2809" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85795,7 +86011,7 @@
       <c r="L2810" t="s">
         <v>27</v>
       </c>
-      <c r="M2810" s="3" t="str">
+      <c r="M2810" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85825,7 +86041,7 @@
       <c r="L2811" t="s">
         <v>27</v>
       </c>
-      <c r="M2811" s="3" t="str">
+      <c r="M2811" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85855,7 +86071,7 @@
       <c r="L2812" t="s">
         <v>27</v>
       </c>
-      <c r="M2812" s="3" t="str">
+      <c r="M2812" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85882,7 +86098,7 @@
       <c r="L2813" t="s">
         <v>31</v>
       </c>
-      <c r="M2813" s="3" t="str">
+      <c r="M2813" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85912,7 +86128,7 @@
       <c r="L2814" t="s">
         <v>17</v>
       </c>
-      <c r="M2814" s="3" t="str">
+      <c r="M2814" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85942,7 +86158,7 @@
       <c r="L2815" t="s">
         <v>17</v>
       </c>
-      <c r="M2815" s="3" t="str">
+      <c r="M2815" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -85972,7 +86188,7 @@
       <c r="L2816" t="s">
         <v>17</v>
       </c>
-      <c r="M2816" s="3" t="str">
+      <c r="M2816" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86002,7 +86218,7 @@
       <c r="L2817" t="s">
         <v>17</v>
       </c>
-      <c r="M2817" s="3" t="str">
+      <c r="M2817" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86032,7 +86248,7 @@
       <c r="L2818" t="s">
         <v>17</v>
       </c>
-      <c r="M2818" s="3" t="str">
+      <c r="M2818" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86062,7 +86278,7 @@
       <c r="L2819" t="s">
         <v>27</v>
       </c>
-      <c r="M2819" s="3" t="str">
+      <c r="M2819" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86092,7 +86308,7 @@
       <c r="L2820" t="s">
         <v>17</v>
       </c>
-      <c r="M2820" s="3" t="str">
+      <c r="M2820" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86122,7 +86338,7 @@
       <c r="L2821" t="s">
         <v>27</v>
       </c>
-      <c r="M2821" s="3" t="str">
+      <c r="M2821" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86152,7 +86368,7 @@
       <c r="L2822" t="s">
         <v>27</v>
       </c>
-      <c r="M2822" s="3" t="str">
+      <c r="M2822" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86182,7 +86398,7 @@
       <c r="L2823" t="s">
         <v>17</v>
       </c>
-      <c r="M2823" s="3" t="str">
+      <c r="M2823" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86209,7 +86425,7 @@
       <c r="L2824" t="s">
         <v>31</v>
       </c>
-      <c r="M2824" s="3" t="str">
+      <c r="M2824" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86239,7 +86455,7 @@
       <c r="L2825" t="s">
         <v>27</v>
       </c>
-      <c r="M2825" s="3" t="str">
+      <c r="M2825" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86269,7 +86485,7 @@
       <c r="L2826" t="s">
         <v>27</v>
       </c>
-      <c r="M2826" s="3" t="str">
+      <c r="M2826" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86296,7 +86512,7 @@
       <c r="L2827" t="s">
         <v>31</v>
       </c>
-      <c r="M2827" s="3" t="str">
+      <c r="M2827" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86326,7 +86542,7 @@
       <c r="L2828" t="s">
         <v>17</v>
       </c>
-      <c r="M2828" s="3" t="str">
+      <c r="M2828" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86356,7 +86572,7 @@
       <c r="L2829" t="s">
         <v>27</v>
       </c>
-      <c r="M2829" s="3" t="str">
+      <c r="M2829" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86386,7 +86602,7 @@
       <c r="L2830" t="s">
         <v>17</v>
       </c>
-      <c r="M2830" s="3" t="str">
+      <c r="M2830" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86416,7 +86632,7 @@
       <c r="L2831" t="s">
         <v>27</v>
       </c>
-      <c r="M2831" s="3" t="str">
+      <c r="M2831" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86446,7 +86662,7 @@
       <c r="L2832" t="s">
         <v>17</v>
       </c>
-      <c r="M2832" s="3" t="str">
+      <c r="M2832" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86476,7 +86692,7 @@
       <c r="L2833" t="s">
         <v>27</v>
       </c>
-      <c r="M2833" s="3" t="str">
+      <c r="M2833" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86506,7 +86722,7 @@
       <c r="L2834" t="s">
         <v>27</v>
       </c>
-      <c r="M2834" s="3" t="str">
+      <c r="M2834" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86536,7 +86752,7 @@
       <c r="L2835" t="s">
         <v>27</v>
       </c>
-      <c r="M2835" s="3" t="str">
+      <c r="M2835" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86566,7 +86782,7 @@
       <c r="L2836" t="s">
         <v>27</v>
       </c>
-      <c r="M2836" s="3" t="str">
+      <c r="M2836" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86596,7 +86812,7 @@
       <c r="L2837" t="s">
         <v>17</v>
       </c>
-      <c r="M2837" s="3" t="str">
+      <c r="M2837" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86626,7 +86842,7 @@
       <c r="L2838" t="s">
         <v>27</v>
       </c>
-      <c r="M2838" s="3" t="str">
+      <c r="M2838" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86653,7 +86869,7 @@
       <c r="L2839" t="s">
         <v>31</v>
       </c>
-      <c r="M2839" s="3" t="str">
+      <c r="M2839" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86683,7 +86899,7 @@
       <c r="L2840" t="s">
         <v>27</v>
       </c>
-      <c r="M2840" s="3" t="str">
+      <c r="M2840" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86713,7 +86929,7 @@
       <c r="L2841" t="s">
         <v>27</v>
       </c>
-      <c r="M2841" s="3" t="str">
+      <c r="M2841" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86743,7 +86959,7 @@
       <c r="L2842" t="s">
         <v>17</v>
       </c>
-      <c r="M2842" s="3" t="str">
+      <c r="M2842" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86770,7 +86986,7 @@
       <c r="L2843" t="s">
         <v>31</v>
       </c>
-      <c r="M2843" s="3" t="str">
+      <c r="M2843" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86797,7 +87013,7 @@
       <c r="L2844" t="s">
         <v>31</v>
       </c>
-      <c r="M2844" s="3" t="str">
+      <c r="M2844" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86827,7 +87043,7 @@
       <c r="L2845" t="s">
         <v>27</v>
       </c>
-      <c r="M2845" s="3" t="str">
+      <c r="M2845" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86857,7 +87073,7 @@
       <c r="L2846" t="s">
         <v>17</v>
       </c>
-      <c r="M2846" s="3" t="str">
+      <c r="M2846" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86887,7 +87103,7 @@
       <c r="L2847" t="s">
         <v>17</v>
       </c>
-      <c r="M2847" s="3" t="str">
+      <c r="M2847" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86917,7 +87133,7 @@
       <c r="L2848" t="s">
         <v>17</v>
       </c>
-      <c r="M2848" s="3" t="str">
+      <c r="M2848" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86944,7 +87160,7 @@
       <c r="L2849" t="s">
         <v>31</v>
       </c>
-      <c r="M2849" s="3" t="str">
+      <c r="M2849" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -86974,7 +87190,7 @@
       <c r="L2850" t="s">
         <v>27</v>
       </c>
-      <c r="M2850" s="3" t="str">
+      <c r="M2850" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87004,7 +87220,7 @@
       <c r="L2851" t="s">
         <v>17</v>
       </c>
-      <c r="M2851" s="3" t="str">
+      <c r="M2851" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87034,7 +87250,7 @@
       <c r="L2852" t="s">
         <v>27</v>
       </c>
-      <c r="M2852" s="3" t="str">
+      <c r="M2852" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87064,7 +87280,7 @@
       <c r="L2853" t="s">
         <v>27</v>
       </c>
-      <c r="M2853" s="3" t="str">
+      <c r="M2853" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87094,7 +87310,7 @@
       <c r="L2854" t="s">
         <v>27</v>
       </c>
-      <c r="M2854" s="3" t="str">
+      <c r="M2854" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87121,7 +87337,7 @@
       <c r="L2855" t="s">
         <v>31</v>
       </c>
-      <c r="M2855" s="3" t="str">
+      <c r="M2855" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87148,7 +87364,7 @@
       <c r="L2856" t="s">
         <v>31</v>
       </c>
-      <c r="M2856" s="3" t="str">
+      <c r="M2856" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87175,7 +87391,7 @@
       <c r="L2857" t="s">
         <v>31</v>
       </c>
-      <c r="M2857" s="3" t="str">
+      <c r="M2857" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87202,7 +87418,7 @@
       <c r="L2858" t="s">
         <v>31</v>
       </c>
-      <c r="M2858" s="3" t="str">
+      <c r="M2858" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87229,7 +87445,7 @@
       <c r="L2859" t="s">
         <v>31</v>
       </c>
-      <c r="M2859" s="3" t="str">
+      <c r="M2859" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87259,7 +87475,7 @@
       <c r="L2860" t="s">
         <v>17</v>
       </c>
-      <c r="M2860" s="3" t="str">
+      <c r="M2860" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87289,7 +87505,7 @@
       <c r="L2861" t="s">
         <v>17</v>
       </c>
-      <c r="M2861" s="3" t="str">
+      <c r="M2861" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87319,7 +87535,7 @@
       <c r="L2862" t="s">
         <v>17</v>
       </c>
-      <c r="M2862" s="3" t="str">
+      <c r="M2862" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87349,7 +87565,7 @@
       <c r="L2863" t="s">
         <v>17</v>
       </c>
-      <c r="M2863" s="3" t="str">
+      <c r="M2863" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87379,7 +87595,7 @@
       <c r="L2864" t="s">
         <v>27</v>
       </c>
-      <c r="M2864" s="3" t="str">
+      <c r="M2864" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87409,7 +87625,7 @@
       <c r="L2865" t="s">
         <v>17</v>
       </c>
-      <c r="M2865" s="3" t="str">
+      <c r="M2865" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
       </c>
@@ -87439,9 +87655,6021 @@
       <c r="L2866" t="s">
         <v>17</v>
       </c>
-      <c r="M2866" s="3" t="str">
+      <c r="M2866" t="str">
         <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
         <v>octubre</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2867" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E2867" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2867" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G2867" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H2867" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I2867">
+        <v>23651.47</v>
+      </c>
+      <c r="J2867" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2867" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2867" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2867" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2868" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E2868" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2868" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2868" t="s">
+        <v>887</v>
+      </c>
+      <c r="H2868" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I2868">
+        <v>4843.32</v>
+      </c>
+      <c r="J2868" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2868" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2868" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2868" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2869" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E2869" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2869" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2869" t="s">
+        <v>883</v>
+      </c>
+      <c r="H2869" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I2869">
+        <v>329.92</v>
+      </c>
+      <c r="J2869" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2869" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2869" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2869" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2870" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E2870" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2870" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2870" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2870" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I2870">
+        <v>3678</v>
+      </c>
+      <c r="J2870" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2870" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2870" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2870" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2871" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E2871" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2871" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G2871" t="s">
+        <v>900</v>
+      </c>
+      <c r="H2871" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I2871">
+        <v>5090</v>
+      </c>
+      <c r="J2871" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2871" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2871" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2871" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2872" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2872" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2872" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2872" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2872" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I2872">
+        <v>10143.02</v>
+      </c>
+      <c r="J2872" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2872" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2872" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2872" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2873" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2873" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2873" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2873" t="s">
+        <v>915</v>
+      </c>
+      <c r="H2873" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2873">
+        <v>64029.7</v>
+      </c>
+      <c r="J2873" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2873" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2873" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2873" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2874" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2874" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2874" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2874" t="s">
+        <v>864</v>
+      </c>
+      <c r="H2874" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2874">
+        <v>53020.179999999993</v>
+      </c>
+      <c r="J2874" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2874" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2874" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2874" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2875" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2875" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2875" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2875" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2875" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I2875">
+        <v>12720.35</v>
+      </c>
+      <c r="J2875" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2875" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2875" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2875" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2876" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2876" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2876" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2876" t="s">
+        <v>716</v>
+      </c>
+      <c r="I2876">
+        <v>9903.41</v>
+      </c>
+      <c r="J2876" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2876" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2876" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2876" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2877" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2877" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2877" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2877" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2877" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I2877">
+        <v>10799</v>
+      </c>
+      <c r="J2877" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2877" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2877" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2877" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2878" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2878" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2878" t="s">
+        <v>882</v>
+      </c>
+      <c r="G2878" t="s">
+        <v>877</v>
+      </c>
+      <c r="H2878" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I2878">
+        <v>7973.51</v>
+      </c>
+      <c r="J2878" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2878" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2878" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2878" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2879" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2879" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2879" t="s">
+        <v>890</v>
+      </c>
+      <c r="G2879" t="s">
+        <v>859</v>
+      </c>
+      <c r="H2879" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I2879">
+        <v>6189</v>
+      </c>
+      <c r="J2879" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2879" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2879" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2879" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2880" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2880" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2880" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2880" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2880" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I2880">
+        <v>29988</v>
+      </c>
+      <c r="J2880" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2880" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2880" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2880" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2881" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2881" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2881" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2881" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2881" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I2881">
+        <v>1931.54</v>
+      </c>
+      <c r="J2881" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2881" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2881" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2881" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2882" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E2882" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2882" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2882" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2882" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I2882">
+        <v>2736.2</v>
+      </c>
+      <c r="J2882" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2882" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2882" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2882" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2883" s="1">
+        <v>45603</v>
+      </c>
+      <c r="E2883" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2883" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G2883" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H2883" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I2883">
+        <v>23209.86</v>
+      </c>
+      <c r="J2883" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2883" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2883" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2883" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2884" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2884" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2884" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2884" t="s">
+        <v>879</v>
+      </c>
+      <c r="H2884" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2884">
+        <v>30450</v>
+      </c>
+      <c r="J2884" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2884" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2884" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2884" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2885" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2885" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2885" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2885" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I2885">
+        <v>9094.24</v>
+      </c>
+      <c r="J2885" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2885" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2885" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2885" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2886" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2886" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2886" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2886" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I2886">
+        <v>3944</v>
+      </c>
+      <c r="J2886" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2886" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2886" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2886" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2887" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2887" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2887" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2887" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2887" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I2887">
+        <v>7666.61</v>
+      </c>
+      <c r="J2887" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2887" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2887" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2887" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2888" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E2888" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F2888" t="s">
+        <v>830</v>
+      </c>
+      <c r="G2888" t="s">
+        <v>831</v>
+      </c>
+      <c r="H2888" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I2888">
+        <v>5218.13</v>
+      </c>
+      <c r="J2888" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2888" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2888" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2888" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2889" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E2889" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2889" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2889" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2889" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I2889">
+        <v>9012.16</v>
+      </c>
+      <c r="J2889" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2889" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2889" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2889" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2890" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E2890" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2890" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2890" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2890" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I2890">
+        <v>3004.05</v>
+      </c>
+      <c r="J2890" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2890" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2890" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2890" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2891" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E2891" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2891" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2891" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2891" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I2891">
+        <v>744</v>
+      </c>
+      <c r="J2891" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2891" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2891" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2891" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2892" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E2892" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2892" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2892" t="s">
+        <v>879</v>
+      </c>
+      <c r="H2892" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I2892">
+        <v>5310.31</v>
+      </c>
+      <c r="J2892" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2892" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2892" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2892" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2893" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E2893" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F2893" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2893" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2893" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I2893">
+        <v>11763.44</v>
+      </c>
+      <c r="J2893" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2893" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2893" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2893" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2894" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E2894" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2894" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2894" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2894" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I2894">
+        <v>2242.5100000000002</v>
+      </c>
+      <c r="J2894" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2894" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2894" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2894" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2895" s="1">
+        <v>45609</v>
+      </c>
+      <c r="E2895" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2895" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2895" t="s">
+        <v>887</v>
+      </c>
+      <c r="H2895" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I2895">
+        <v>1955.42</v>
+      </c>
+      <c r="J2895" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2895" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2895" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2895" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2896" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2896" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2896" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G2896" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H2896" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I2896">
+        <v>7419.19</v>
+      </c>
+      <c r="J2896" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2896" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2896" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2896" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2897" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2897" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2897" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G2897" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H2897" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I2897">
+        <v>8334.08</v>
+      </c>
+      <c r="J2897" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2897" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2897" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2897" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2898" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2898" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2898" t="s">
+        <v>931</v>
+      </c>
+      <c r="G2898" t="s">
+        <v>857</v>
+      </c>
+      <c r="H2898" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I2898">
+        <v>1002.24</v>
+      </c>
+      <c r="J2898" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2898" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2898" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2898" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2899" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2899" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2899" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2899" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2899" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I2899">
+        <v>30100.86</v>
+      </c>
+      <c r="J2899" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2899" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2899" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2899" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2900" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E2900" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2900" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2900" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2900" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I2900">
+        <v>28955.919999999998</v>
+      </c>
+      <c r="J2900" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2900" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2900" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2900" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2901" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2901" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2901" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2901" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2901" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I2901">
+        <v>4079.43</v>
+      </c>
+      <c r="J2901" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2901" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2901" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2901" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2902" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2902" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2902" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2902" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I2902">
+        <v>24586.38</v>
+      </c>
+      <c r="J2902" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2902" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2902" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2902" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2903" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2903" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2903" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2903" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2903" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I2903">
+        <v>1789.33</v>
+      </c>
+      <c r="J2903" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2903" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2903" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2903" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2904" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2904" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2904" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2904" t="s">
+        <v>617</v>
+      </c>
+      <c r="H2904" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I2904">
+        <v>1789.33</v>
+      </c>
+      <c r="J2904" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2904" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2904" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2904" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2905" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2905" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2905" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2905" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2905" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I2905">
+        <v>9195.25</v>
+      </c>
+      <c r="J2905" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2905" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2905" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2905" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2906" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E2906" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2906" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2906" t="s">
+        <v>913</v>
+      </c>
+      <c r="H2906" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I2906">
+        <v>4230.08</v>
+      </c>
+      <c r="J2906" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2906" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2906" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2906" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2907" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E2907" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2907" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G2907" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H2907" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I2907">
+        <v>5548.34</v>
+      </c>
+      <c r="J2907" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2907" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2907" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2907" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2908" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E2908" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2908" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2908" t="s">
+        <v>864</v>
+      </c>
+      <c r="H2908" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I2908">
+        <v>454.96</v>
+      </c>
+      <c r="J2908" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2908" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2908" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2908" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2909" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E2909" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2909" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2909" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2909" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I2909">
+        <v>15948.09</v>
+      </c>
+      <c r="J2909" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2909" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2909" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2909" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2910" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E2910" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2910" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G2910" t="s">
+        <v>900</v>
+      </c>
+      <c r="H2910" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I2910">
+        <v>1911.14</v>
+      </c>
+      <c r="J2910" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2910" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2910" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2910" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2911" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E2911" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2911" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2911" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2911" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I2911">
+        <v>1224.81</v>
+      </c>
+      <c r="J2911" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2911" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2911" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2911" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2912" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E2912" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2912" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2912" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2912" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I2912">
+        <v>6008.1</v>
+      </c>
+      <c r="J2912" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2912" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2912" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2912" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2913" s="1">
+        <v>45623</v>
+      </c>
+      <c r="E2913" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F2913" t="s">
+        <v>931</v>
+      </c>
+      <c r="G2913" t="s">
+        <v>857</v>
+      </c>
+      <c r="H2913" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I2913">
+        <v>1611.54</v>
+      </c>
+      <c r="J2913" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2913" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2913" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2913" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2914" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2914" t="s">
+        <v>783</v>
+      </c>
+      <c r="F2914" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2914" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2914" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I2914">
+        <v>41850</v>
+      </c>
+      <c r="J2914" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2914" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2914" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2914" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2915" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2915" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2915" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2915" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2915" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I2915">
+        <v>12924.2</v>
+      </c>
+      <c r="J2915" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2915" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2915" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2915" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2916" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E2916" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2916" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2916" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H2916" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2916">
+        <v>2200</v>
+      </c>
+      <c r="J2916" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2916" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2916" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2916" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2917" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E2917" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2917" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2917" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2917" t="s">
+        <v>940</v>
+      </c>
+      <c r="I2917">
+        <v>4070</v>
+      </c>
+      <c r="J2917" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2917" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2917" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2917" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2918" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E2918" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2918" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2918" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H2918" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I2918">
+        <v>4500</v>
+      </c>
+      <c r="J2918" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2918" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2918" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2918" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2919" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E2919" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2919" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2919" t="s">
+        <v>923</v>
+      </c>
+      <c r="H2919" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I2919">
+        <v>6900</v>
+      </c>
+      <c r="J2919" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2919" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2919" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2919" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2920" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E2920" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2920" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2920" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2920">
+        <v>2000</v>
+      </c>
+      <c r="J2920" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2920" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2920" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2920" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2921" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2921" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2921" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2921" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2921" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I2921">
+        <v>955</v>
+      </c>
+      <c r="J2921" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2921" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2921" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2921" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2922" s="1">
+        <v>45603</v>
+      </c>
+      <c r="E2922" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2922" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2922" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2922">
+        <v>2000</v>
+      </c>
+      <c r="J2922" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2922" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2922" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2922" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2923" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2923" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2923" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2923" t="s">
+        <v>913</v>
+      </c>
+      <c r="H2923" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2923">
+        <v>100</v>
+      </c>
+      <c r="J2923" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2923" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2923" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2923" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2924" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2924" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2924" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G2924" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H2924" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2924">
+        <v>4400</v>
+      </c>
+      <c r="J2924" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2924" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2924" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2924" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2925" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2925" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2925" t="s">
+        <v>830</v>
+      </c>
+      <c r="G2925" t="s">
+        <v>866</v>
+      </c>
+      <c r="H2925" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2925">
+        <v>3500</v>
+      </c>
+      <c r="J2925" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2925" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2925" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2925" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2926" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2926" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2926" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2926" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2926" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2926">
+        <v>1900</v>
+      </c>
+      <c r="J2926" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2926" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2926" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2926" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2927" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2927" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2927" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2927" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2927" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2927">
+        <v>1900</v>
+      </c>
+      <c r="J2927" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2927" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2927" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2927" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2928" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2928" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2928" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2928" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2928">
+        <v>300</v>
+      </c>
+      <c r="J2928" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2928" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2928" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2928" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2929" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2929" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2929" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2929" t="s">
+        <v>856</v>
+      </c>
+      <c r="H2929" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I2929">
+        <v>1755</v>
+      </c>
+      <c r="J2929" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2929" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2929" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2929" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2930" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2930" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2930" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2930" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2930" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I2930">
+        <v>3510</v>
+      </c>
+      <c r="J2930" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2930" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2930" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2930" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2931" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2931" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2931" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2931" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2931">
+        <v>1000</v>
+      </c>
+      <c r="J2931" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2931" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2931" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2931" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2932" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E2932" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2932" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2932" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2932">
+        <v>2000</v>
+      </c>
+      <c r="J2932" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2932" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2932" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2932" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2933" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2933" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2933" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2933" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2933" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2933">
+        <v>4400</v>
+      </c>
+      <c r="J2933" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2933" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2933" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2933" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2934" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2934" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2934" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2934" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H2934" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2934">
+        <v>2000</v>
+      </c>
+      <c r="J2934" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2934" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2934" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2934" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2935" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2935" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2935" t="s">
+        <v>830</v>
+      </c>
+      <c r="G2935" t="s">
+        <v>866</v>
+      </c>
+      <c r="H2935" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2935">
+        <v>2500</v>
+      </c>
+      <c r="J2935" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2935" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2935" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2935" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2936" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2936" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2936" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2936" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2936">
+        <v>700</v>
+      </c>
+      <c r="J2936" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2936" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2936" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2936" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2937" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2937" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2937" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2937" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2937">
+        <v>2000</v>
+      </c>
+      <c r="J2937" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2937" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2937" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2937" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2938" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2938" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2938" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2938" t="s">
+        <v>915</v>
+      </c>
+      <c r="H2938" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2938">
+        <v>9900</v>
+      </c>
+      <c r="J2938" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2938" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2938" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2938" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2939" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E2939" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2939" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2939" t="s">
+        <v>869</v>
+      </c>
+      <c r="H2939" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2939">
+        <v>6500</v>
+      </c>
+      <c r="J2939" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2939" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2939" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2939" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2940" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2940" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G2940" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H2940" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I2940">
+        <v>2250</v>
+      </c>
+      <c r="J2940" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2940" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2940" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2940" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2941" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E2941" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2941" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2941" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H2941" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I2941">
+        <v>2250</v>
+      </c>
+      <c r="J2941" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2941" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2941" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2941" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2942" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2942" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2942" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2942" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2942">
+        <v>2000</v>
+      </c>
+      <c r="J2942" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2942" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2942" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2942" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2943" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2943" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2943" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G2943" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H2943" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2943">
+        <v>8800</v>
+      </c>
+      <c r="J2943" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2943" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2943" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2943" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2944" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2944" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2944" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2944" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2944" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2944">
+        <v>16800</v>
+      </c>
+      <c r="J2944" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2944" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2944" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2944" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2945" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E2945" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2945" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2945" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2945">
+        <v>2000</v>
+      </c>
+      <c r="J2945" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2945" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2945" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2945" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2946" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E2946" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2946" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2946" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2946" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I2946">
+        <v>2600</v>
+      </c>
+      <c r="J2946" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2946" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2946" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2946" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2947" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E2947" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2947" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2947" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2947">
+        <v>2000</v>
+      </c>
+      <c r="J2947" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2947" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2947" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2947" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2948" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E2948" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2948" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2948" t="s">
+        <v>869</v>
+      </c>
+      <c r="H2948" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2948">
+        <v>144</v>
+      </c>
+      <c r="J2948" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2948" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2948" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2948" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2949" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E2949" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2949" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2949" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2949">
+        <v>356</v>
+      </c>
+      <c r="J2949" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2949" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2949" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2949" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2950" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E2950" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2950" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2950" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2950">
+        <v>500</v>
+      </c>
+      <c r="J2950" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2950" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2950" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2950" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2951" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E2951" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2951" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G2951" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H2951" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I2951">
+        <v>500</v>
+      </c>
+      <c r="J2951" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2951" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2951" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2951" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2952" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2952" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2952" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2952" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I2952">
+        <v>500</v>
+      </c>
+      <c r="J2952" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2952" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2952" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2952" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2953" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2953" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2953" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G2953" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H2953" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2953">
+        <v>1900</v>
+      </c>
+      <c r="J2953" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2953" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2953" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2953" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2954" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2954" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2954" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2954" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2954" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2954">
+        <v>3200</v>
+      </c>
+      <c r="J2954" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2954" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2954" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2954" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2955" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2955" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2955" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2955" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2955" t="s">
+        <v>938</v>
+      </c>
+      <c r="I2955">
+        <v>1900</v>
+      </c>
+      <c r="J2955" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2955" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2955" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2955" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2956" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E2956" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2956" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2956" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2956" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2956">
+        <v>3510</v>
+      </c>
+      <c r="J2956" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2956" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2956" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2956" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2957" s="1">
+        <v>45598</v>
+      </c>
+      <c r="E2957" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2957" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2957" t="s">
+        <v>876</v>
+      </c>
+      <c r="I2957">
+        <v>5320</v>
+      </c>
+      <c r="J2957" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2957" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2957" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2957" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2958" s="1">
+        <v>45598</v>
+      </c>
+      <c r="E2958" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2958" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2958" t="s">
+        <v>876</v>
+      </c>
+      <c r="I2958">
+        <v>19987</v>
+      </c>
+      <c r="J2958" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2958" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2958" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2958" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2959" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2959" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2959" t="s">
+        <v>952</v>
+      </c>
+      <c r="G2959" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I2959">
+        <v>665</v>
+      </c>
+      <c r="J2959" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2959" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2959" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2959" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2960" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2960" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2960" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2960">
+        <v>13965</v>
+      </c>
+      <c r="J2960" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2960" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2960" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2960" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2961" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2961" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2961" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2961">
+        <v>47795</v>
+      </c>
+      <c r="J2961" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2961" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2961" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2961" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2962" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2962" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2962" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2962">
+        <v>349</v>
+      </c>
+      <c r="J2962" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2962" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2962" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2962" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2963" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2963" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2963" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2963">
+        <v>3600</v>
+      </c>
+      <c r="J2963" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2963" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2963" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2963" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2964" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2964" t="s">
+        <v>952</v>
+      </c>
+      <c r="G2964" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I2964">
+        <v>1330</v>
+      </c>
+      <c r="J2964" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2964" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2964" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2964" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2965" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2965" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2965" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2965">
+        <v>665</v>
+      </c>
+      <c r="J2965" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2965" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2965" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2965" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2966" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2966" t="s">
+        <v>954</v>
+      </c>
+      <c r="G2966" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I2966">
+        <v>1995</v>
+      </c>
+      <c r="J2966" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2966" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2966" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2966" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2967" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2967" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G2967" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I2967">
+        <v>1330</v>
+      </c>
+      <c r="J2967" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2967" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2967" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2967" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2968" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2968" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2968" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2968">
+        <v>2607</v>
+      </c>
+      <c r="J2968" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2968" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2968" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2968" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2969" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2969" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G2969" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I2969">
+        <v>46926</v>
+      </c>
+      <c r="J2969" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2969" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2969" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2969" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2970" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2970" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2970" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2970">
+        <v>5340</v>
+      </c>
+      <c r="J2970" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2970" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2970" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2970" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2971" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2971" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2971" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2971">
+        <v>3750</v>
+      </c>
+      <c r="J2971" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2971" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2971" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2971" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2972" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2972" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2972" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2972">
+        <v>2196</v>
+      </c>
+      <c r="J2972" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2972" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2972" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2972" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2973" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2973" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2973" t="s">
+        <v>897</v>
+      </c>
+      <c r="I2973">
+        <v>869</v>
+      </c>
+      <c r="J2973" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2973" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2973" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2973" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2974" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2974" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2974" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2974">
+        <v>2660</v>
+      </c>
+      <c r="J2974" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2974" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2974" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2974" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2975" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2975" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2975" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2975">
+        <v>869</v>
+      </c>
+      <c r="J2975" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2975" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2975" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2975" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2976" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2976" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2976" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I2976">
+        <v>869</v>
+      </c>
+      <c r="J2976" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2976" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2976" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2976" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2977" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2977" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2977" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2977">
+        <v>26600</v>
+      </c>
+      <c r="J2977" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2977" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2977" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2977" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2978" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2978" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2978" t="s">
+        <v>982</v>
+      </c>
+      <c r="I2978">
+        <v>5214</v>
+      </c>
+      <c r="J2978" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2978" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2978" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2978" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2979" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2979" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2979" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2979">
+        <v>15282</v>
+      </c>
+      <c r="J2979" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2979" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2979" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2979" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2980" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2980" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2980" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2980">
+        <v>12166</v>
+      </c>
+      <c r="J2980" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2980" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2980" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2980" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2981" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2981" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G2981" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I2981">
+        <v>890</v>
+      </c>
+      <c r="J2981" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2981" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2981" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2981" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2982" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2982" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2982" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2982">
+        <v>111232</v>
+      </c>
+      <c r="J2982" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2982" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2982" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2982" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2983" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2983" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2983" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2983">
+        <v>1335</v>
+      </c>
+      <c r="J2983" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2983" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2983" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2983" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2984" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2984" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2984" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2984">
+        <v>869</v>
+      </c>
+      <c r="J2984" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2984" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2984" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2984" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2985" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2985" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2985" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2985">
+        <v>1738</v>
+      </c>
+      <c r="J2985" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2985" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2985" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2985" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2986" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2986" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2986" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2986">
+        <v>4895</v>
+      </c>
+      <c r="J2986" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2986" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2986" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2986" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2987" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2987" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G2987" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I2987">
+        <v>5214</v>
+      </c>
+      <c r="J2987" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2987" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2987" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2987" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2988" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2988" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G2988" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I2988">
+        <v>10428</v>
+      </c>
+      <c r="J2988" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2988" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2988" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2988" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2989" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2989" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G2989" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2989">
+        <v>698</v>
+      </c>
+      <c r="J2989" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2989" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2989" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2989" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2990" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2990" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2990" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2990">
+        <v>1047</v>
+      </c>
+      <c r="J2990" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2990" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2990" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2990" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2991" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2991" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2991" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2991">
+        <v>7198</v>
+      </c>
+      <c r="J2991" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2991" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2991" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2991" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2992" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2992" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2992" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2992">
+        <v>869</v>
+      </c>
+      <c r="J2992" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2992" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2992" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2992" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2993" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2993" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2993" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2993">
+        <v>18249</v>
+      </c>
+      <c r="J2993" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2993" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2993" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2993" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2994" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2994" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2994" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2994">
+        <v>869</v>
+      </c>
+      <c r="J2994" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2994" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2994" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2994" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2995" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2995" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2995" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2995">
+        <v>480</v>
+      </c>
+      <c r="J2995" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2995" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2995" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2995" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2996" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2996" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2996" t="s">
+        <v>879</v>
+      </c>
+      <c r="I2996">
+        <v>960</v>
+      </c>
+      <c r="J2996" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2996" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2996" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2996" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2997" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2997" t="s">
+        <v>931</v>
+      </c>
+      <c r="G2997" t="s">
+        <v>932</v>
+      </c>
+      <c r="I2997">
+        <v>2880</v>
+      </c>
+      <c r="J2997" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2997" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2997" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2997" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2998" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2998" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2998" t="s">
+        <v>926</v>
+      </c>
+      <c r="I2998">
+        <v>2160</v>
+      </c>
+      <c r="J2998" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2998" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2998" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2998" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2999" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2999" t="s">
+        <v>981</v>
+      </c>
+      <c r="G2999" t="s">
+        <v>982</v>
+      </c>
+      <c r="I2999">
+        <v>480</v>
+      </c>
+      <c r="J2999" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2999" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2999" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2999" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3000" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>750</v>
+      </c>
+      <c r="F3000" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3000" t="s">
+        <v>875</v>
+      </c>
+      <c r="I3000">
+        <v>720</v>
+      </c>
+      <c r="J3000" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3000" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3000" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3000" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3001" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>750</v>
+      </c>
+      <c r="F3001" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3001" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3001">
+        <v>480</v>
+      </c>
+      <c r="J3001" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3001" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3001" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3001" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3002" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>750</v>
+      </c>
+      <c r="F3002" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3002" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3002">
+        <v>4320</v>
+      </c>
+      <c r="J3002" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3002" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3002" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3002" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3003" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>750</v>
+      </c>
+      <c r="F3003" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3003" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3003">
+        <v>9900</v>
+      </c>
+      <c r="J3003" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3003" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3003" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3003" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3004" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>750</v>
+      </c>
+      <c r="F3004" t="s">
+        <v>954</v>
+      </c>
+      <c r="G3004" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I3004">
+        <v>2607</v>
+      </c>
+      <c r="J3004" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3004" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3004" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3004" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3005" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3005" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G3005" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I3005">
+        <v>557.1</v>
+      </c>
+      <c r="J3005" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3005" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3005" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3005" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3006" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3006" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G3006" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I3006">
+        <v>557.1</v>
+      </c>
+      <c r="J3006" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3006" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3006" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3006" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3007" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3007" t="s">
+        <v>886</v>
+      </c>
+      <c r="G3007" t="s">
+        <v>876</v>
+      </c>
+      <c r="I3007">
+        <v>1627.17</v>
+      </c>
+      <c r="J3007" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3007" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3007" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3007" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3008" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3008" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3008" t="s">
+        <v>875</v>
+      </c>
+      <c r="I3008">
+        <v>1449.18</v>
+      </c>
+      <c r="J3008" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3008" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3008" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3008" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3009" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3009" t="s">
+        <v>888</v>
+      </c>
+      <c r="G3009" t="s">
+        <v>879</v>
+      </c>
+      <c r="I3009">
+        <v>5521.19</v>
+      </c>
+      <c r="J3009" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3009" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3009" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3009" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3010" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3010" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3010">
+        <v>12619.42</v>
+      </c>
+      <c r="J3010" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3010" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3010" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3010" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3011" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3011" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G3011" t="s">
+        <v>878</v>
+      </c>
+      <c r="I3011">
+        <v>1355.11</v>
+      </c>
+      <c r="J3011" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3011" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3011" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3011" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3012" s="1">
+        <v>45610</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3012" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3012">
+        <v>11.12</v>
+      </c>
+      <c r="J3012" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3012" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3012" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3012" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3013" s="1">
+        <v>45610</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3013" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3013">
+        <v>85</v>
+      </c>
+      <c r="J3013" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3013" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3013" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3013" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3014" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3014" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3014" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3014">
+        <v>9325.02</v>
+      </c>
+      <c r="J3014" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3014" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3014" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3014" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3015" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3015" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3015" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3015">
+        <v>5037.8500000000004</v>
+      </c>
+      <c r="J3015" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3015" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3015" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3015" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3016" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3016" t="s">
+        <v>981</v>
+      </c>
+      <c r="G3016" t="s">
+        <v>982</v>
+      </c>
+      <c r="I3016">
+        <v>971.44</v>
+      </c>
+      <c r="J3016" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3016" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3016" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3016" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3017" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3017" t="s">
+        <v>889</v>
+      </c>
+      <c r="G3017" t="s">
+        <v>926</v>
+      </c>
+      <c r="I3017">
+        <v>5913.64</v>
+      </c>
+      <c r="J3017" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3017" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3017" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3017" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3018" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3018" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3018" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3018">
+        <v>11149.36</v>
+      </c>
+      <c r="J3018" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3018" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3018" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3018" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3019" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3019" t="s">
+        <v>889</v>
+      </c>
+      <c r="G3019" t="s">
+        <v>926</v>
+      </c>
+      <c r="I3019">
+        <v>1146.21</v>
+      </c>
+      <c r="J3019" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3019" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3019" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3019" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3020" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3020" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3020" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3020">
+        <v>1276.8699999999999</v>
+      </c>
+      <c r="J3020" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3020" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3020" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3020" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3021" s="1">
+        <v>45617</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3021" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3021" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3021">
+        <v>8781.2099999999991</v>
+      </c>
+      <c r="J3021" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3021" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3021" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3021" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3022" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3022" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3022">
+        <v>928.66</v>
+      </c>
+      <c r="J3022" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3022" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3022" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3022" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3023" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3023" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3023" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3023">
+        <v>1465.17</v>
+      </c>
+      <c r="J3023" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3023" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3023" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3023" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3024" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3024" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3024">
+        <v>20606</v>
+      </c>
+      <c r="J3024" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3024" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3024" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3024" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3025" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3025" t="s">
+        <v>954</v>
+      </c>
+      <c r="G3025" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I3025">
+        <v>4160</v>
+      </c>
+      <c r="J3025" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3025" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3025" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3025" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3026" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3026" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3026">
+        <v>7912</v>
+      </c>
+      <c r="J3026" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3026" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3026" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3026" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3027" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3027" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3027">
+        <v>11606</v>
+      </c>
+      <c r="J3027" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3027" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3027" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3027" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3028" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3028" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3028" t="s">
+        <v>932</v>
+      </c>
+      <c r="I3028">
+        <v>6100</v>
+      </c>
+      <c r="J3028" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3028" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3028" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3028" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3029" s="1">
+        <v>45610</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3029" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3029">
+        <v>3600</v>
+      </c>
+      <c r="J3029" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3029" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3029" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3029" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3030" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3030" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3030" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3030">
+        <v>1984</v>
+      </c>
+      <c r="J3030" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3030" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3030" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3030" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3031" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3031" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3031" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3031">
+        <v>6840</v>
+      </c>
+      <c r="J3031" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3031" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3031" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3031" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3032" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3032" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3032">
+        <v>15402</v>
+      </c>
+      <c r="J3032" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3032" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3032" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3032" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3033" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3033" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3033">
+        <v>11606</v>
+      </c>
+      <c r="J3033" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3033" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3033" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3033" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3034" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G3034" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3034">
+        <v>10300</v>
+      </c>
+      <c r="J3034" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3034" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3034" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3034" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3035" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3035" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3035" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3035">
+        <v>3439</v>
+      </c>
+      <c r="J3035" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3035" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3035" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3035" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3036" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3036" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3036">
+        <v>5568</v>
+      </c>
+      <c r="J3036" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3036" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3036" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3036" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3037" s="1">
+        <v>45609</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3037" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3037">
+        <v>1902.4</v>
+      </c>
+      <c r="J3037" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3037" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3037" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3037" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3038" s="1">
+        <v>45610</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3038" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3038">
+        <v>8775.35</v>
+      </c>
+      <c r="J3038" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3038" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3038" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3038" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3039" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3039" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3039">
+        <v>8482.7800000000007</v>
+      </c>
+      <c r="J3039" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3039" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3039" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3039" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3040" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3040" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3040">
+        <v>13340</v>
+      </c>
+      <c r="J3040" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3040" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3040" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3040" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3041" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3041" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3041" t="s">
+        <v>932</v>
+      </c>
+      <c r="I3041">
+        <v>17417.400000000001</v>
+      </c>
+      <c r="J3041" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3041" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3041" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3041" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3042" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3042" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3042" t="s">
+        <v>932</v>
+      </c>
+      <c r="I3042">
+        <v>3166.8</v>
+      </c>
+      <c r="J3042" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3042" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3042" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3042" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3043" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3043" t="s">
+        <v>903</v>
+      </c>
+      <c r="G3043" t="s">
+        <v>904</v>
+      </c>
+      <c r="I3043">
+        <v>8175.68</v>
+      </c>
+      <c r="J3043" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3043" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3043" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3043" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3044" s="1">
+        <v>45609</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3044" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3044" t="s">
+        <v>875</v>
+      </c>
+      <c r="I3044">
+        <v>9989.92</v>
+      </c>
+      <c r="J3044" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3044" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3044" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3044" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3045" s="1">
+        <v>45609</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3045" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3045" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3045">
+        <v>38307.839999999997</v>
+      </c>
+      <c r="J3045" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3045" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3045" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3045" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3046" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3046" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3046" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3046">
+        <v>48107.519999999997</v>
+      </c>
+      <c r="J3046" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3046" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3046" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3046" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3047" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3047" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3047" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3047">
+        <v>47216.639999999999</v>
+      </c>
+      <c r="J3047" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3047" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3047" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3047" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3048" s="1">
+        <v>45618</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3048" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G3048" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I3048">
+        <v>28957.08</v>
+      </c>
+      <c r="J3048" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3048" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3048" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3048" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3049" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G3049" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3049">
+        <v>17821.080000000002</v>
+      </c>
+      <c r="J3049" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3049" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3049" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3049" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3050" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G3050" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3050">
+        <v>10727.1</v>
+      </c>
+      <c r="J3050" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3050" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3050" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3050" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3051" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3051" t="s">
+        <v>888</v>
+      </c>
+      <c r="G3051" t="s">
+        <v>879</v>
+      </c>
+      <c r="I3051">
+        <v>4308.24</v>
+      </c>
+      <c r="J3051" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3051" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3051" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3051" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3052" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3052" t="s">
+        <v>886</v>
+      </c>
+      <c r="G3052" t="s">
+        <v>876</v>
+      </c>
+      <c r="I3052">
+        <v>14175.1</v>
+      </c>
+      <c r="J3052" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3052" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3052" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3052" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3053" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3053" t="s">
+        <v>886</v>
+      </c>
+      <c r="G3053" t="s">
+        <v>876</v>
+      </c>
+      <c r="I3053">
+        <v>3720.28</v>
+      </c>
+      <c r="J3053" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3053" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3053" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3053" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3054" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3054" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3054" t="s">
+        <v>932</v>
+      </c>
+      <c r="I3054">
+        <v>2249.9899999999998</v>
+      </c>
+      <c r="J3054" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3054" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3054" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3054" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3055" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3055" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3055" t="s">
+        <v>932</v>
+      </c>
+      <c r="I3055">
+        <v>2249.9899999999998</v>
+      </c>
+      <c r="J3055" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3055" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3055" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3055" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3056" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3056" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3056" t="s">
+        <v>932</v>
+      </c>
+      <c r="I3056">
+        <v>875</v>
+      </c>
+      <c r="J3056" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3056" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3056" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3056" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3057" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3057" t="s">
+        <v>889</v>
+      </c>
+      <c r="G3057" t="s">
+        <v>926</v>
+      </c>
+      <c r="I3057">
+        <v>12176</v>
+      </c>
+      <c r="J3057" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3057" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3057" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3057" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3058" s="1">
+        <v>45621</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3058" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G3058" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I3058">
+        <v>54478.69</v>
+      </c>
+      <c r="J3058" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3058" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3058" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3058" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3059" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3059" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G3059" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3059">
+        <v>9561.8799999999992</v>
+      </c>
+      <c r="J3059" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3059" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3059" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3059" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3060" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3060" t="s">
+        <v>830</v>
+      </c>
+      <c r="G3060" t="s">
+        <v>852</v>
+      </c>
+      <c r="I3060">
+        <v>3787.4</v>
+      </c>
+      <c r="J3060" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3060" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3060" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3060" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3061" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G3061" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3061">
+        <v>5550</v>
+      </c>
+      <c r="J3061" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3061" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3061" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3061" s="3" t="str">
+        <f>TEXT(Tabla1[[#This Row],[FECHA]],"mmmm")</f>
+        <v>noviembre</v>
       </c>
     </row>
   </sheetData>
